--- a/tomb reverse lorand/mormant_finance deployment schedule.xlsx
+++ b/tomb reverse lorand/mormant_finance deployment schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\New Repositories\specterfinance-contracts\tomb reverse lorand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4385F10A-47FC-42B0-B377-3AFA11A3771B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B460A9DD-867B-417A-B3B4-75FB591EE7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Shit1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Shit1!$B$1:$F$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Shit1!$A$1:$G$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="353">
   <si>
     <t xml:space="preserve">SeigniorageOracle: </t>
   </si>
@@ -61,9 +61,6 @@
     <t xml:space="preserve">TombFtmLpTombRewardPool: </t>
   </si>
   <si>
-    <t xml:space="preserve">TombFtmLPTShareRewardPool: </t>
-  </si>
-  <si>
     <t xml:space="preserve">TshareFtmLPTShareRewardPool: </t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>0x88725502d14c4080a3ee6de5d147b31af59c4f3be1d7be7546d165a65385134e</t>
   </si>
   <si>
-    <t>Constructor Arguments?</t>
-  </si>
-  <si>
     <t>0x01acda810b58f60aa9913033d9937a706d5c7299127d2d8e250326c392451723</t>
   </si>
   <si>
@@ -202,12 +196,6 @@
     <t>0x62fc90842ca71f92e91826ca9f4fe6080d29bff8aeccb1630092e80d023464ea</t>
   </si>
   <si>
-    <t>0x2712a06fd93cf9547dedd7af7de1a27b5ce4a4e61d32506f5799cd075f701426</t>
-  </si>
-  <si>
-    <t>0xd92be8a3fe3698f7372557752daf6beb5d5469636642f03113b646d1a863ce0e</t>
-  </si>
-  <si>
     <t>0x4def7d696adb88959ff4223f315f18a22e30118dd0690fa19d0a669b79ce0d88</t>
   </si>
   <si>
@@ -295,42 +283,15 @@
     <t>0x573748f91a4fc2d2eb81321cd115c395fb9302e175950eebb97c39239b4ee781</t>
   </si>
   <si>
-    <t>0xc049e61da64b7775908501885e751cfbd162bdd21b7316ddbfd1795c38e33658</t>
-  </si>
-  <si>
-    <t>0x067b581b18d77e6f1b506d661d3eb5db05a793e2287a6755eed4281e1a026327</t>
-  </si>
-  <si>
-    <t>0xace1aea90afbf6b6abeafc5f3773d88acd858c74020e32f99894cad00f6db99f</t>
-  </si>
-  <si>
     <t>0x94663c10ff05f57e973ba88d15b0f0a546cccbd106662b4d4f13c1fc016709d1</t>
   </si>
   <si>
-    <t>0x72ddadc4b99f0985c0cacbd0baab0de707bce0a52ea38ff5923456f5f37811c6</t>
-  </si>
-  <si>
-    <t>0xffaaa8c4025f9a4fbbd3d5b75ff8741156157a1c2da0d34b9708aeca06f4c9c6</t>
-  </si>
-  <si>
-    <t>0x58fa07d988b4d0be8e8c8990e92e5d050b03ace12b1ee2458dfe8ad4158bd0db</t>
-  </si>
-  <si>
-    <t>0xf63b42b9111b3589a740b96c3c954c0015803b4e336a31638016b3a160d4d25c</t>
-  </si>
-  <si>
-    <t>0x68b832f94109ddad918ddcffaf5f545d0214e43e7c0d2911bc19bc399509e038</t>
-  </si>
-  <si>
     <t>Add</t>
   </si>
   <si>
     <t>Emergency Withdraw</t>
   </si>
   <si>
-    <t>Update Pool</t>
-  </si>
-  <si>
     <t>0x888baae0940576334819bba0e1b1eaa7cb8f76fc39c6fc7874cee339c09ec5f5</t>
   </si>
   <si>
@@ -637,12 +598,6 @@
     <t>https://ftmscan.com/tx/0x62fc90842ca71f92e91826ca9f4fe6080d29bff8aeccb1630092e80d023464ea</t>
   </si>
   <si>
-    <t>https://ftmscan.com/tx/0x2712a06fd93cf9547dedd7af7de1a27b5ce4a4e61d32506f5799cd075f701426</t>
-  </si>
-  <si>
-    <t>https://ftmscan.com/tx/0xd92be8a3fe3698f7372557752daf6beb5d5469636642f03113b646d1a863ce0e</t>
-  </si>
-  <si>
     <t>https://ftmscan.com/tx/0x4def7d696adb88959ff4223f315f18a22e30118dd0690fa19d0a669b79ce0d88</t>
   </si>
   <si>
@@ -715,33 +670,9 @@
     <t>https://ftmscan.com/tx/0x573748f91a4fc2d2eb81321cd115c395fb9302e175950eebb97c39239b4ee781</t>
   </si>
   <si>
-    <t>https://ftmscan.com/tx/0xc049e61da64b7775908501885e751cfbd162bdd21b7316ddbfd1795c38e33658</t>
-  </si>
-  <si>
-    <t>https://ftmscan.com/tx/0x067b581b18d77e6f1b506d661d3eb5db05a793e2287a6755eed4281e1a026327</t>
-  </si>
-  <si>
-    <t>https://ftmscan.com/tx/0xace1aea90afbf6b6abeafc5f3773d88acd858c74020e32f99894cad00f6db99f</t>
-  </si>
-  <si>
     <t>https://ftmscan.com/tx/0x94663c10ff05f57e973ba88d15b0f0a546cccbd106662b4d4f13c1fc016709d1</t>
   </si>
   <si>
-    <t>https://ftmscan.com/tx/0x72ddadc4b99f0985c0cacbd0baab0de707bce0a52ea38ff5923456f5f37811c6</t>
-  </si>
-  <si>
-    <t>https://ftmscan.com/tx/0xffaaa8c4025f9a4fbbd3d5b75ff8741156157a1c2da0d34b9708aeca06f4c9c6</t>
-  </si>
-  <si>
-    <t>https://ftmscan.com/tx/0x58fa07d988b4d0be8e8c8990e92e5d050b03ace12b1ee2458dfe8ad4158bd0db</t>
-  </si>
-  <si>
-    <t>https://ftmscan.com/tx/0xf63b42b9111b3589a740b96c3c954c0015803b4e336a31638016b3a160d4d25c</t>
-  </si>
-  <si>
-    <t>https://ftmscan.com/tx/0x68b832f94109ddad918ddcffaf5f545d0214e43e7c0d2911bc19bc399509e038</t>
-  </si>
-  <si>
     <t>https://ftmscan.com/tx/0x888baae0940576334819bba0e1b1eaa7cb8f76fc39c6fc7874cee339c09ec5f5</t>
   </si>
   <si>
@@ -947,6 +878,222 @@
   </si>
   <si>
     <t>Link to ftmscan</t>
+  </si>
+  <si>
+    <t>tax rate = 0, tomb finance dao wallet address</t>
+  </si>
+  <si>
+    <t>no constructor arguments</t>
+  </si>
+  <si>
+    <t>0xb2a4a570f60c76ed395f7964c22613248bce953d8256e9544283bad0c020aee2</t>
+  </si>
+  <si>
+    <t>0xb2b0439082525d53c4b5a521148a725336521549ec0f832d569f86d9b21ff9f8</t>
+  </si>
+  <si>
+    <t>0x9b96c9a8a6935d210cda842c8d67d29c442ebbc58d3a0a884f11076a5394a1dd</t>
+  </si>
+  <si>
+    <t>Governance Recover Unsupported</t>
+  </si>
+  <si>
+    <t>https://ftmscan.com/tx/0xb2a4a570f60c76ed395f7964c22613248bce953d8256e9544283bad0c020aee2</t>
+  </si>
+  <si>
+    <t>https://ftmscan.com/tx/0xb2b0439082525d53c4b5a521148a725336521549ec0f832d569f86d9b21ff9f8</t>
+  </si>
+  <si>
+    <t>https://ftmscan.com/tx/0x9b96c9a8a6935d210cda842c8d67d29c442ebbc58d3a0a884f11076a5394a1dd</t>
+  </si>
+  <si>
+    <t>tshare reward pool address (created at row 11)</t>
+  </si>
+  <si>
+    <t>spookyswap router address, ammount (99999*10**18)</t>
+  </si>
+  <si>
+    <t>spookyswap router address, ammount (fffff...)</t>
+  </si>
+  <si>
+    <t>TombRewardPool</t>
+  </si>
+  <si>
+    <t>address _genesisPool, address _TombRewardPool, address _airdropWallet</t>
+  </si>
+  <si>
+    <t>starttime 1622637000* , tomb dao wallet ,tomb dev wallet</t>
+  </si>
+  <si>
+    <t>tomb address, shiba address, starttime 1622637000*</t>
+  </si>
+  <si>
+    <t>*1622637000 = Jun 02 2021 12:30:00</t>
+  </si>
+  <si>
+    <t>tomb address, 1622723400**</t>
+  </si>
+  <si>
+    <t>**1622723400 = Jun 03 2021 12:30:00</t>
+  </si>
+  <si>
+    <t>alloc points (2500), boo address, _withUpdate = 1, _lastRewardTime = 1622637000*</t>
+  </si>
+  <si>
+    <t>alloc points (1500), shiba address,  _withUpdate = 1, _lastRewardTime = 1622637000*</t>
+  </si>
+  <si>
+    <t>alloc points (1000), zoo address, _withUpdate = 1, _lastRewardTime = 1622637000*</t>
+  </si>
+  <si>
+    <t>alloc points (6000), WFTM address, _withUpdate = 1, _lastRewardTime = 1622637000*</t>
+  </si>
+  <si>
+    <t>tshare address, starttime 1623069000***</t>
+  </si>
+  <si>
+    <t>***1623069000 = Jun 07 2021 12:30:00</t>
+  </si>
+  <si>
+    <t>alloc points (140000), tomb+wftm LP address,  withupdate = 1, _lastRewardTime = 1622723400**</t>
+  </si>
+  <si>
+    <t>alloc points (35500),  tomb+wftm LP address, withupdate = 1, lastreward = 1623069000***</t>
+  </si>
+  <si>
+    <t>alloc points (24000), tshare+WFTM LP address, withupdate = 1, lastreward = 1623069000***</t>
+  </si>
+  <si>
+    <t>tomb-wftm address, period (21600), starttime 1622637000*</t>
+  </si>
+  <si>
+    <t>21600s = 6h</t>
+  </si>
+  <si>
+    <t>oracle address created at step 23</t>
+  </si>
+  <si>
+    <t>TaxOfficeV1:</t>
+  </si>
+  <si>
+    <t>0x1e365d125dcaf10e25ab4734304854270181947773e0360603dda14bdcbd6190</t>
+  </si>
+  <si>
+    <t>https://ftmscan.com/tx/0x1e365d125dcaf10e25ab4734304854270181947773e0360603dda14bdcbd6190</t>
+  </si>
+  <si>
+    <t>tomb address</t>
+  </si>
+  <si>
+    <t>tomb tax officev1 address created at step 141</t>
+  </si>
+  <si>
+    <t>tshare address</t>
+  </si>
+  <si>
+    <t>tbond address</t>
+  </si>
+  <si>
+    <t>tombfinancegenesisreward pool address</t>
+  </si>
+  <si>
+    <t>tombRewardPool address</t>
+  </si>
+  <si>
+    <t>tshareRewardsPool address</t>
+  </si>
+  <si>
+    <t>oracle address</t>
+  </si>
+  <si>
+    <t>oracle address again</t>
+  </si>
+  <si>
+    <t>https://ftmscan.com/tx/0xa1df80a5f555a2c436493b9bb88080124408301cafe34071cb5832179db1a6cb</t>
+  </si>
+  <si>
+    <t>0xa1df80a5f555a2c436493b9bb88080124408301cafe34071cb5832179db1a6cb</t>
+  </si>
+  <si>
+    <t>treasury address created at 142</t>
+  </si>
+  <si>
+    <t>dao wallet address</t>
+  </si>
+  <si>
+    <t>dev wallet address</t>
+  </si>
+  <si>
+    <t>spookyswap router address: 0xf491e7b69e4244ad4002bc14e878a34207e38c29</t>
+  </si>
+  <si>
+    <t>spookyswapfactory address: 0x152eE697f2E276fA89E96742e9bB9aB1F2E61bE3</t>
+  </si>
+  <si>
+    <t>newopperator: treasury address created at 142</t>
+  </si>
+  <si>
+    <t>no constructor arguments -&gt; hardcoded addreses!!!</t>
+  </si>
+  <si>
+    <t>alloc points (253000), dummy token address, true, 1622637000*</t>
+  </si>
+  <si>
+    <t>no argument</t>
+  </si>
+  <si>
+    <t>(Constructor) Arguments?</t>
+  </si>
+  <si>
+    <t>alloc points (140000), tomb+wftm LP address, 1, last update: 1622723400**</t>
+  </si>
+  <si>
+    <t>transfer to same operator?</t>
+  </si>
+  <si>
+    <t>tomb rewards pool address, 140000</t>
+  </si>
+  <si>
+    <t>_pid = 0 (TOMB+WFTM LP), ammount (10.000.000.000.000.000 = 0.01)</t>
+  </si>
+  <si>
+    <t>_pid = 0 (TOMB+WFTM LP), ammount (1.000.000.000.000.000 = 0.001)</t>
+  </si>
+  <si>
+    <t>_pid = 0 (TOMB+WFTM LP), ammount (11.600.000.000.000.000 = 0.0116)</t>
+  </si>
+  <si>
+    <t>tombRewardPool address (from line 136)</t>
+  </si>
+  <si>
+    <t>reverted</t>
+  </si>
+  <si>
+    <t>_pid = 0 (TOMB+WFTM LP)</t>
+  </si>
+  <si>
+    <t>no arguments</t>
+  </si>
+  <si>
+    <t>address _tomb, address _tshare, address _treasury</t>
+  </si>
+  <si>
+    <t>address _tomb, address _tbond, address _tshare, address _tombOracle, address _masonry, uint256 1623501000****</t>
+  </si>
+  <si>
+    <t>****1623501000 = Jun 12 2021 12:30:00</t>
+  </si>
+  <si>
+    <t>address _daoFund, uint256 _daoFundSharedPercent (1800 = 18%), address _devFund, uint256 _devFundSharedPercent (200 = 2%)</t>
+  </si>
+  <si>
+    <t>treasury address</t>
+  </si>
+  <si>
+    <t>_bootstrapEpochs 0,  _bootstrapSupplyExpansionPercent (450 = 4.5%)</t>
+  </si>
+  <si>
+    <t>tomb address, 140.000.000.000.000.000.000.000 (140k)</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1028,8 +1175,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1312,46 +1470,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="30.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="93.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.28515625" customWidth="1"/>
+    <col min="5" max="5" width="66.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1362,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5">
@@ -1370,7 +1529,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1378,20 +1537,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="5">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="11">
         <v>44346.938796296294</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1402,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="5">
@@ -1410,7 +1571,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1418,20 +1579,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="5">
+        <v>61</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="11">
         <v>44346.939004629632</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1442,7 +1608,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="5">
@@ -1450,7 +1616,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1458,20 +1624,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="5">
+        <v>65</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="11">
         <v>44346.939050925925</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="I7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1482,7 +1653,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="5">
@@ -1490,7 +1661,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1498,52 +1669,62 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F9" s="5">
+        <v>77</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="11">
         <v>44346.944004629629</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="I9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1</v>
+        <v>293</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10" s="5">
-        <v>44346.944652777776</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" s="11">
+        <v>44346.944085648145</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="I10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="5">
@@ -1551,2720 +1732,2649 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="11">
+        <v>44346.944652777776</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="I12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" s="5">
-        <v>44346.944803240738</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>8</v>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5">
+        <v>85</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="11">
         <v>44346.944803240738</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F14" s="11">
+        <v>44346.944930555554</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="F14" s="5">
-        <v>44346.944803240738</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="B15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="11">
+        <v>44346.949131944442</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F15" s="5">
-        <v>44346.944930555554</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F16" s="5">
-        <v>44346.949131944442</v>
-      </c>
-      <c r="G16" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="11">
+        <v>44346.949456018519</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F17" s="5">
-        <v>44346.949456018519</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="11">
+        <v>44346.960949074077</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" s="11">
+        <v>44346.969108796293</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F18" s="5">
-        <v>44346.960949074077</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="F19" s="5">
-        <v>44346.969108796293</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" s="11">
+        <v>44346.969166666669</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="F20" s="5">
-        <v>44346.969166666669</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F20" s="11">
+        <v>44346.969212962962</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F21" s="5">
-        <v>44346.969212962962</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" s="11">
+        <v>44346.969247685185</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>6</v>
+        <v>293</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="F22" s="5">
-        <v>44346.969247685185</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F22" s="11">
+        <v>44346.969814814816</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>236</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="5">
-        <v>44346.970393518517</v>
+        <v>44346.972592592596</v>
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="F24" s="5">
+        <v>86</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" s="11">
         <v>44346.970393518517</v>
       </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="F25" s="5">
+        <v>87</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="11">
         <v>44346.97042824074</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="8" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="F26" s="5">
-        <v>44346.97042824074</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="11">
+        <v>44346.972592592596</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="5">
-        <v>44346.972592592596</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="11">
+        <v>44346.972615740742</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="F28" s="5">
-        <v>44346.972592592596</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F28" s="11">
+        <v>44346.972615740742</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1</v>
+        <v>312</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F29" s="5">
-        <v>44346.972615740742</v>
-      </c>
-      <c r="G29" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F29" s="11">
+        <v>44346.972916666666</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F30" s="5">
+        <v>29</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="11">
         <v>44346.973819444444</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="8" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="F31" s="5">
+        <v>30</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="11">
         <v>44346.976087962961</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="8" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="F32" s="5">
+        <v>31</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="11">
         <v>44346.976122685184</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="8" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F33" s="5">
+        <v>32</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="11">
         <v>44346.976134259261</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F34" s="5">
+        <v>33</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="11">
         <v>44346.976168981484</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="8" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F35" s="5">
+        <v>34</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="11">
         <v>44346.976319444446</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="8" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F36" s="5">
+        <v>35</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" s="11">
         <v>44346.976435185185</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="8" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F37" s="5">
+        <v>36</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" s="11">
         <v>44346.9765625</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="8" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F38" s="5">
+        <v>37</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="11">
         <v>44346.9766087963</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" s="8" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F39" s="5">
+        <v>38</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" s="11">
         <v>44346.976736111108</v>
       </c>
-      <c r="G39" s="2"/>
+      <c r="G39" s="8" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F40" s="5">
+        <v>39</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F40" s="11">
         <v>44346.976875</v>
       </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F41" s="5">
+        <v>40</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="11">
         <v>44346.977002314816</v>
       </c>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42" s="5">
+        <v>41</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" s="11">
         <v>44346.977118055554</v>
       </c>
-      <c r="G42" s="2"/>
+      <c r="G42" s="8" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F43" s="5">
+        <v>42</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" s="11">
         <v>44346.977384259262</v>
       </c>
-      <c r="G43" s="2"/>
+      <c r="G43" s="8" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F44" s="5">
+        <v>63</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" s="11">
         <v>44346.977511574078</v>
       </c>
-      <c r="G44" s="2"/>
+      <c r="G44" s="8" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="F45" s="5">
+        <v>66</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F45" s="11">
         <v>44346.977581018517</v>
       </c>
-      <c r="G45" s="2"/>
+      <c r="G45" s="8" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="F46" s="5">
-        <v>44347.468784722223</v>
-      </c>
-      <c r="G46" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" s="11">
+        <v>44347.775231481479</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F47" s="5">
-        <v>44347.573680555557</v>
-      </c>
-      <c r="G47" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F47" s="11">
+        <v>44349.454583333332</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F48" s="5">
-        <v>44347.573969907404</v>
-      </c>
-      <c r="G48" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F48" s="11">
+        <v>44349.456400462965</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="F49" s="5">
-        <v>44347.775231481479</v>
-      </c>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F49" s="11">
+        <v>44349.456782407404</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>96</v>
+        <v>7</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>230</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50" s="5">
-        <v>44348.148125</v>
+        <v>44349.92491898148</v>
       </c>
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F51" s="11">
+        <v>44349.92491898148</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>55</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="F51" s="5">
-        <v>44349.19394675926</v>
-      </c>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="F52" s="5">
-        <v>44349.275960648149</v>
-      </c>
-      <c r="G52" s="2"/>
+      <c r="E52" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F52" s="11">
+        <v>44349.932395833333</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F53" s="5">
-        <v>44349.454583333332</v>
-      </c>
-      <c r="G53" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F53" s="11">
+        <v>44349.956203703703</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F54" s="5">
-        <v>44349.456400462965</v>
-      </c>
-      <c r="G54" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" s="11">
+        <v>44349.958240740743</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F55" s="5">
-        <v>44349.456782407404</v>
-      </c>
-      <c r="G55" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F55" s="11">
+        <v>44349.960162037038</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F56" s="5">
-        <v>44349.484525462962</v>
-      </c>
-      <c r="G56" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F56" s="11">
+        <v>44349.966944444444</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="F57" s="5">
-        <v>44349.519942129627</v>
-      </c>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F57" s="11">
+        <v>44350.474189814813</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>7</v>
+      <c r="C58" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="5">
-        <v>44349.92491898148</v>
-      </c>
-      <c r="G58" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F58" s="11">
+        <v>44350.475104166668</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="F59" s="5">
-        <v>44349.92491898148</v>
-      </c>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" s="11">
+        <v>44353.438414351855</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>95</v>
+        <v>4</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>245</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E60" s="2"/>
       <c r="F60" s="5">
-        <v>44349.932395833333</v>
+        <v>44357.980949074074</v>
       </c>
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F61" s="5">
-        <v>44349.956203703703</v>
-      </c>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F61" s="11">
+        <v>44353.439212962963</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>198</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="5">
-        <v>44349.958240740743</v>
+        <v>44357.980983796297</v>
       </c>
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F63" s="5">
-        <v>44349.960162037038</v>
-      </c>
-      <c r="G63" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F63" s="11">
+        <v>44353.440763888888</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F64" s="5">
-        <v>44349.966944444444</v>
-      </c>
-      <c r="G64" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F64" s="11">
+        <v>44353.954108796293</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="F65" s="5">
-        <v>44349.98196759259</v>
-      </c>
-      <c r="G65" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F65" s="11">
+        <v>44353.958611111113</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="F66" s="5">
-        <v>44349.983414351853</v>
-      </c>
-      <c r="G66" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F66" s="11">
+        <v>44357.980949074074</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F67" s="5">
-        <v>44350.474189814813</v>
-      </c>
-      <c r="G67" s="2"/>
+      <c r="E67" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F67" s="11">
+        <v>44357.980983796297</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="F68" s="5">
-        <v>44350.475104166668</v>
-      </c>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E68" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F68" s="11">
+        <v>44357.98101851852</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F69" s="5">
-        <v>44353.438414351855</v>
-      </c>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F69" s="11">
+        <v>44357.981053240743</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F70" s="5">
-        <v>44353.439212962963</v>
-      </c>
-      <c r="G70" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F70" s="11">
+        <v>44357.981076388889</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F71" s="5">
-        <v>44353.440763888888</v>
-      </c>
-      <c r="G71" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F71" s="11">
+        <v>44357.983946759261</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F72" s="5">
-        <v>44353.954108796293</v>
-      </c>
-      <c r="G72" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="11">
+        <v>44357.984537037039</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="F73" s="5">
-        <v>44353.958611111113</v>
-      </c>
-      <c r="G73" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F73" s="11">
+        <v>44357.985358796293</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="5">
-        <v>44357.980949074074</v>
+        <v>44403.002337962964</v>
       </c>
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F75" s="11">
+        <v>44357.986087962963</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>80</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="F75" s="5">
-        <v>44357.980949074074</v>
-      </c>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>75</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>5</v>
+      <c r="C76" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="5">
-        <v>44357.980983796297</v>
-      </c>
-      <c r="G76" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F76" s="11">
+        <v>44359.521018518521</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="F77" s="5">
-        <v>44357.980983796297</v>
-      </c>
-      <c r="G77" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F77" s="11">
+        <v>44359.543124999997</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F78" s="5">
-        <v>44357.98101851852</v>
-      </c>
-      <c r="G78" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F78" s="11">
+        <v>44359.771006944444</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>4</v>
+        <v>293</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>114</v>
+        <v>286</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="F79" s="5">
-        <v>44357.981053240743</v>
-      </c>
-      <c r="G79" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F79" s="11">
+        <v>44399.557349537034</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="F80" s="5">
-        <v>44357.981076388889</v>
-      </c>
-      <c r="G80" s="2"/>
+      <c r="E80" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F80" s="11">
+        <v>44403.002337962964</v>
+      </c>
+      <c r="G80" s="8"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F81" s="5">
-        <v>44357.983946759261</v>
-      </c>
-      <c r="G81" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F81" s="11">
+        <v>44403.388969907406</v>
+      </c>
+      <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="F82" s="5">
-        <v>44357.984537037039</v>
-      </c>
-      <c r="G82" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F82" s="11">
+        <v>44403.675625000003</v>
+      </c>
+      <c r="G82" s="8"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="F83" s="5">
-        <v>44357.985358796293</v>
-      </c>
-      <c r="G83" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F83" s="11">
+        <v>44406.501967592594</v>
+      </c>
+      <c r="G83" s="8"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F84" s="5">
-        <v>44357.986087962963</v>
-      </c>
-      <c r="G84" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F84" s="11">
+        <v>44406.556875000002</v>
+      </c>
+      <c r="G84" s="8"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F85" s="5">
-        <v>44359.521018518521</v>
-      </c>
-      <c r="G85" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F85" s="11">
+        <v>44406.825231481482</v>
+      </c>
+      <c r="G85" s="8"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="F86" s="5">
-        <v>44359.543124999997</v>
-      </c>
-      <c r="G86" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F86" s="11">
+        <v>44406.825567129628</v>
+      </c>
+      <c r="G86" s="8"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F87" s="11">
+        <v>44406.8278587963</v>
+      </c>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>92</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E87" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="F87" s="5">
-        <v>44359.771006944444</v>
-      </c>
-      <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>87</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="5">
-        <v>44403.002337962964</v>
-      </c>
-      <c r="G88" s="2"/>
+      <c r="E88" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F88" s="11">
+        <v>44406.827928240738</v>
+      </c>
+      <c r="G88" s="8"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F89" s="5">
-        <v>44403.002337962964</v>
-      </c>
-      <c r="G89" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F89" s="11">
+        <v>44407.749398148146</v>
+      </c>
+      <c r="G89" s="8"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="F90" s="5">
-        <v>44403.388969907406</v>
-      </c>
-      <c r="G90" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F90" s="11">
+        <v>44408.349062499998</v>
+      </c>
+      <c r="G90" s="8"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="F91" s="5">
-        <v>44403.675625000003</v>
-      </c>
-      <c r="G91" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F91" s="11">
+        <v>44408.932199074072</v>
+      </c>
+      <c r="G91" s="8"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F92" s="5">
-        <v>44406.501967592594</v>
-      </c>
-      <c r="G92" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F92" s="11">
+        <v>44408.932662037034</v>
+      </c>
+      <c r="G92" s="8"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F93" s="5">
-        <v>44406.556875000002</v>
-      </c>
-      <c r="G93" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F93" s="11">
+        <v>44408.933136574073</v>
+      </c>
+      <c r="G93" s="8"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F94" s="5">
-        <v>44406.825231481482</v>
-      </c>
-      <c r="G94" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F94" s="11">
+        <v>44408.933437500003</v>
+      </c>
+      <c r="G94" s="8"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F95" s="5">
-        <v>44406.825567129628</v>
-      </c>
-      <c r="G95" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F95" s="11">
+        <v>44408.933645833335</v>
+      </c>
+      <c r="G95" s="8"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F96" s="5">
-        <v>44406.8278587963</v>
-      </c>
-      <c r="G96" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F96" s="11">
+        <v>44408.937754629631</v>
+      </c>
+      <c r="G96" s="8"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F97" s="5">
-        <v>44406.827928240738</v>
-      </c>
-      <c r="G97" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F97" s="11">
+        <v>44408.938009259262</v>
+      </c>
+      <c r="G97" s="8"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F98" s="5">
-        <v>44407.749398148146</v>
-      </c>
-      <c r="G98" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F98" s="11">
+        <v>44408.938263888886</v>
+      </c>
+      <c r="G98" s="8"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="F99" s="5">
-        <v>44408.349062499998</v>
-      </c>
-      <c r="G99" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F99" s="11">
+        <v>44408.938946759263</v>
+      </c>
+      <c r="G99" s="8"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="F100" s="5">
-        <v>44408.932199074072</v>
-      </c>
-      <c r="G100" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F100" s="11">
+        <v>44408.939131944448</v>
+      </c>
+      <c r="G100" s="8"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="F101" s="5">
-        <v>44408.932662037034</v>
-      </c>
-      <c r="G101" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F101" s="11">
+        <v>44408.939305555556</v>
+      </c>
+      <c r="G101" s="8"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F102" s="5">
-        <v>44408.933136574073</v>
-      </c>
-      <c r="G102" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F102" s="11">
+        <v>44408.939444444448</v>
+      </c>
+      <c r="G102" s="8"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="F103" s="5">
-        <v>44408.933437500003</v>
-      </c>
-      <c r="G103" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F103" s="11">
+        <v>44408.939641203702</v>
+      </c>
+      <c r="G103" s="8"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F104" s="5">
-        <v>44408.933645833335</v>
-      </c>
-      <c r="G104" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F104" s="11">
+        <v>44408.939768518518</v>
+      </c>
+      <c r="G104" s="8"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F105" s="5">
-        <v>44408.937754629631</v>
-      </c>
-      <c r="G105" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F105" s="11">
+        <v>44408.940069444441</v>
+      </c>
+      <c r="G105" s="8"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="F106" s="5">
-        <v>44408.938009259262</v>
-      </c>
-      <c r="G106" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F106" s="11">
+        <v>44408.940196759257</v>
+      </c>
+      <c r="G106" s="8"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="F107" s="5">
-        <v>44408.938263888886</v>
-      </c>
-      <c r="G107" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F107" s="11">
+        <v>44408.940370370372</v>
+      </c>
+      <c r="G107" s="8"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="F108" s="5">
-        <v>44408.938946759263</v>
-      </c>
-      <c r="G108" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F108" s="11">
+        <v>44408.940520833334</v>
+      </c>
+      <c r="G108" s="8"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="F109" s="5">
-        <v>44408.939131944448</v>
-      </c>
-      <c r="G109" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F109" s="11">
+        <v>44408.940625000003</v>
+      </c>
+      <c r="G109" s="8"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="F110" s="5">
-        <v>44408.939305555556</v>
-      </c>
-      <c r="G110" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F110" s="11">
+        <v>44408.940972222219</v>
+      </c>
+      <c r="G110" s="8"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="F111" s="5">
-        <v>44408.939444444448</v>
-      </c>
-      <c r="G111" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F111" s="11">
+        <v>44408.941087962965</v>
+      </c>
+      <c r="G111" s="8"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="F112" s="5">
-        <v>44408.939641203702</v>
-      </c>
-      <c r="G112" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F112" s="11">
+        <v>44408.941192129627</v>
+      </c>
+      <c r="G112" s="8"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="F113" s="5">
-        <v>44408.939768518518</v>
-      </c>
-      <c r="G113" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F113" s="11">
+        <v>44408.941365740742</v>
+      </c>
+      <c r="G113" s="8"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="F114" s="5">
-        <v>44408.940069444441</v>
-      </c>
-      <c r="G114" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F114" s="11">
+        <v>44408.941469907404</v>
+      </c>
+      <c r="G114" s="8"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="F115" s="5">
-        <v>44408.940196759257</v>
-      </c>
-      <c r="G115" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F115" s="11">
+        <v>44408.94158564815</v>
+      </c>
+      <c r="G115" s="8"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="F116" s="5">
-        <v>44408.940370370372</v>
-      </c>
-      <c r="G116" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F116" s="11">
+        <v>44408.941712962966</v>
+      </c>
+      <c r="G116" s="8"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="F117" s="5">
-        <v>44408.940520833334</v>
-      </c>
-      <c r="G117" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F117" s="11">
+        <v>44408.941793981481</v>
+      </c>
+      <c r="G117" s="8"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="F118" s="5">
-        <v>44408.940625000003</v>
-      </c>
-      <c r="G118" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F118" s="11">
+        <v>44408.94189814815</v>
+      </c>
+      <c r="G118" s="8"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="F119" s="5">
-        <v>44408.940972222219</v>
-      </c>
-      <c r="G119" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F119" s="11">
+        <v>44409.341423611113</v>
+      </c>
+      <c r="G119" s="8"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F120" s="5">
-        <v>44408.941087962965</v>
-      </c>
-      <c r="G120" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F120" s="11">
+        <v>44409.375324074077</v>
+      </c>
+      <c r="G120" s="8"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="F121" s="5">
-        <v>44408.941192129627</v>
-      </c>
-      <c r="G121" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F121" s="11">
+        <v>44409.436944444446</v>
+      </c>
+      <c r="G121" s="8"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F122" s="5">
-        <v>44408.941365740742</v>
-      </c>
-      <c r="G122" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F122" s="11">
+        <v>44409.463854166665</v>
+      </c>
+      <c r="G122" s="8"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="F123" s="5">
-        <v>44408.941469907404</v>
-      </c>
-      <c r="G123" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F123" s="11">
+        <v>44409.494571759256</v>
+      </c>
+      <c r="G123" s="8"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="F124" s="5">
-        <v>44408.94158564815</v>
-      </c>
-      <c r="G124" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F124" s="11">
+        <v>44409.699097222219</v>
+      </c>
+      <c r="G124" s="8"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>175</v>
+        <v>58</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="F125" s="5">
-        <v>44408.941712962966</v>
-      </c>
-      <c r="G125" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F125" s="11">
+        <v>44411.892893518518</v>
+      </c>
+      <c r="G125" s="8"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>175</v>
+        <v>58</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="F126" s="5">
-        <v>44408.941793981481</v>
-      </c>
-      <c r="G126" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F126" s="11">
+        <v>44440.067685185182</v>
+      </c>
+      <c r="G126" s="8"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F127" s="5">
-        <v>44408.94189814815</v>
-      </c>
-      <c r="G127" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F127" s="11">
+        <v>44481.449432870373</v>
+      </c>
+      <c r="G127" s="8"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="F128" s="5">
-        <v>44409.341423611113</v>
-      </c>
-      <c r="G128" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F128" s="11">
+        <v>44487.27783564815</v>
+      </c>
+      <c r="G128" s="8"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F129" s="5">
-        <v>44409.375324074077</v>
-      </c>
-      <c r="G129" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F129" s="11">
+        <v>44487.2812037037</v>
+      </c>
+      <c r="G129" s="8"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="F130" s="5">
-        <v>44409.436944444446</v>
-      </c>
-      <c r="G130" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F130" s="11">
+        <v>44487.413946759261</v>
+      </c>
+      <c r="G130" s="8"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="F131" s="5">
-        <v>44409.463854166665</v>
-      </c>
-      <c r="G131" s="2"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <v>131</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="F132" s="5">
-        <v>44409.494571759256</v>
-      </c>
-      <c r="G132" s="2"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <v>132</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="F133" s="5">
-        <v>44409.699097222219</v>
-      </c>
-      <c r="G133" s="2"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>133</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F134" s="5">
-        <v>44411.892893518518</v>
-      </c>
-      <c r="G134" s="2"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>134</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F135" s="5">
-        <v>44440.067685185182</v>
-      </c>
-      <c r="G135" s="2"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
-        <v>135</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D136" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E136" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F136" s="5">
-        <v>44481.449432870373</v>
-      </c>
-      <c r="G136" s="2"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
-        <v>136</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="F137" s="5">
-        <v>44487.27783564815</v>
-      </c>
-      <c r="G137" s="2"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
-        <v>137</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F138" s="5">
-        <v>44487.2812037037</v>
-      </c>
-      <c r="G138" s="2"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
-        <v>138</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F139" s="5">
-        <v>44487.413946759261</v>
-      </c>
-      <c r="G139" s="2"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
-        <v>139</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F140" s="5">
+      <c r="E131" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F131" s="11">
         <v>44487.414988425924</v>
       </c>
-      <c r="G140" s="2"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
-        <v>140</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
+      <c r="G131" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:F141" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters blank="1">
+  <autoFilter ref="A1:G131" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
         <filter val="0x00da40a68426a9561f38acb366458d3b514311a199155a8a68b6383d4f6bd0d6"/>
         <filter val="0x01acda810b58f60aa9913033d9937a706d5c7299127d2d8e250326c392451723"/>
         <filter val="0x04e80088fcc28f2e2abf58f9ea577aff51830b8a46cfdd773903e24eaada79a5"/>
@@ -4282,8 +4392,10 @@
         <filter val="0x190b2b7d0b64d5d3ca5748899e3ae94dc3ae99ff7306f458d5f4482321a6f205"/>
         <filter val="0x19c4e18862b3f1de1d4e8c99cdd08687e0d32dc369dad71ace757728e5f606ff"/>
         <filter val="0x1ac1a54266c5bc31e76e5c1cfc2dc25ec60c631a7b4f37727d9a49686deeeb68"/>
+        <filter val="0x1e365d125dcaf10e25ab4734304854270181947773e0360603dda14bdcbd6190"/>
         <filter val="0x1eaea3a1c9ae3e4c0e70d8c59a071f693b60d95c0b6a57e85881146a9aa44b93"/>
         <filter val="0x2038b0696614faa1d0254e5ca416f06ab1fbe1697c2685f59a044f9b96c1677e"/>
+        <filter val="0x203ee3c28f0d05b3199d49704aaf7e3a767abc12eadd4f2eeb406e7c2d309921"/>
         <filter val="0x227d71d5bd65a9cdfdb7a54e3a46a96462dc3dbe4bc47ae53600fb0a69154551"/>
         <filter val="0x244269138cd2b05411dfde012f543733ffcb3e01686cd91a2379a6924814ac4e"/>
         <filter val="0x249ecb3623f0437d2a3f524e99ce299d93f31fd4dbc58afb3e6042d1f559d55f"/>
@@ -4332,6 +4444,7 @@
         <filter val="0x791cdf03dfc7b7e72d06e8e72e8b42dd5f6e59185b655c2d568aa0fe96c55e08"/>
         <filter val="0x7e4f89a89b4c05eef3bb25642a6e3ece29cf39373e533a2ac01533fbbe3a1e36"/>
         <filter val="0x7e7be177000ae2c2b5033c7fe7920216b78c0ad249fe29a718a93df944c3bff2"/>
+        <filter val="0x84f3f889df174120a98f19c2cb6dcee90045e184033ce409ec7ee8e1e6bb8606"/>
         <filter val="0x86a319a9a265d7d336ede7a449182e73ac2956c615dc4e537f668eb969231a0a"/>
         <filter val="0x88725502d14c4080a3ee6de5d147b31af59c4f3be1d7be7546d165a65385134e"/>
         <filter val="0x888baae0940576334819bba0e1b1eaa7cb8f76fc39c6fc7874cee339c09ec5f5"/>
@@ -4342,7 +4455,9 @@
         <filter val="0x972bd35a56bdd1be6a38e233d9e6132756270176b7bbf67f8a09f04b0cb9f3d2"/>
         <filter val="0x9788b68486dd45f3e8fc36a2784f19d4f92a292ed5bac4ef3dfbbcbdf7a6a998"/>
         <filter val="0x99f246b606af619b92759b5a3604edccc8c2939f490137d8107168cba1415264"/>
+        <filter val="0x9b96c9a8a6935d210cda842c8d67d29c442ebbc58d3a0a884f11076a5394a1dd"/>
         <filter val="0xa17ebd0e1aedf1f1a4beaafc80c01056aa677631bb23aa910304bafddbd4bba7"/>
+        <filter val="0xa1df80a5f555a2c436493b9bb88080124408301cafe34071cb5832179db1a6cb"/>
         <filter val="0xa5c13bbf5f3adfb3bbedd85b3ec86442a7494f8eb25ba3824bca45df42d84def"/>
         <filter val="0xa66d06ab3b85138c27b83e1af55a13fa212a6e88a8110ac01499b14cfe0927ce"/>
         <filter val="0xa8b9b1b077253ed7be4ba272b5229dd8f650eb1589d6455bd1b211578194077f"/>
@@ -4352,6 +4467,8 @@
         <filter val="0xaf675309bbab738201b13a130558accb53be5aa240064d1d62e03084a7242b5f"/>
         <filter val="0xaffe55de86674c178c68b6877216c474d7be33953249b2235d540c49350d9953"/>
         <filter val="0xb20a3aa780d1b6b1c83c4ac9fdfcd8ab0e6ab2c8e8d7b3280ea1d436761d0012"/>
+        <filter val="0xb2a4a570f60c76ed395f7964c22613248bce953d8256e9544283bad0c020aee2"/>
+        <filter val="0xb2b0439082525d53c4b5a521148a725336521549ec0f832d569f86d9b21ff9f8"/>
         <filter val="0xb401801491e54da0040fa82c5fdb50430865a4b243e96a0cb0560ba649f93e05"/>
         <filter val="0xb7004d9abb94c1f1fa0bafad46238a2b39a70bc4ae28dfe6ad1fe8a539d034a7"/>
         <filter val="0xc049e61da64b7775908501885e751cfbd162bdd21b7316ddbfd1795c38e33658"/>
@@ -4392,17 +4509,17 @@
         <filter val="0xffaaa8c4025f9a4fbbd3d5b75ff8741156157a1c2da0d34b9708aeca06f4c9c6"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F141">
-      <sortCondition ref="F1:F141"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G131">
+      <sortCondition ref="F1:F131"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{CC226D66-8EF2-4B26-ABB0-C3435BD3E956}"/>
-    <hyperlink ref="E10" r:id="rId2" xr:uid="{691FC201-D1E3-4CD6-BC2A-B246B4CF7269}"/>
-    <hyperlink ref="E16" r:id="rId3" xr:uid="{0BA6138B-47D7-4108-B6D5-58747DA77B86}"/>
-    <hyperlink ref="E17" r:id="rId4" xr:uid="{99DC493A-91FD-4B13-A548-32E711418C86}"/>
-    <hyperlink ref="E18" r:id="rId5" xr:uid="{D855AA22-2436-4570-A9EC-5FEB7D7D9754}"/>
-    <hyperlink ref="E29" r:id="rId6" xr:uid="{52AAF4A8-26F7-486A-9A96-A99885D121D0}"/>
+    <hyperlink ref="E12" r:id="rId2" xr:uid="{691FC201-D1E3-4CD6-BC2A-B246B4CF7269}"/>
+    <hyperlink ref="E15" r:id="rId3" xr:uid="{0BA6138B-47D7-4108-B6D5-58747DA77B86}"/>
+    <hyperlink ref="E16" r:id="rId4" xr:uid="{99DC493A-91FD-4B13-A548-32E711418C86}"/>
+    <hyperlink ref="E17" r:id="rId5" xr:uid="{D855AA22-2436-4570-A9EC-5FEB7D7D9754}"/>
+    <hyperlink ref="E27" r:id="rId6" xr:uid="{52AAF4A8-26F7-486A-9A96-A99885D121D0}"/>
     <hyperlink ref="E30" r:id="rId7" xr:uid="{CB2F9CC2-BF58-4838-B696-87B760D7699F}"/>
     <hyperlink ref="E31" r:id="rId8" xr:uid="{2C47805F-986B-4C86-B356-DC27A75ED375}"/>
     <hyperlink ref="E32" r:id="rId9" xr:uid="{F913C845-86CD-4C76-9C55-B1F2A2F40605}"/>
@@ -4417,57 +4534,73 @@
     <hyperlink ref="E41" r:id="rId18" xr:uid="{34DB7DBB-0377-4459-B101-D11137808C6D}"/>
     <hyperlink ref="E42" r:id="rId19" xr:uid="{B4555CD1-E301-4D36-BB23-5E0D473D9979}"/>
     <hyperlink ref="E43" r:id="rId20" xr:uid="{22350453-298C-48D7-B00B-F53327D79346}"/>
-    <hyperlink ref="E61" r:id="rId21" xr:uid="{D4D18C66-C34D-4EAF-81B9-E16BDCB50EBD}"/>
-    <hyperlink ref="E62" r:id="rId22" xr:uid="{79AA3943-0F7E-4BA3-8959-3D179D95E3AE}"/>
-    <hyperlink ref="E63" r:id="rId23" xr:uid="{6EA021C7-8A81-4D01-9865-B8B05CB44EFF}"/>
-    <hyperlink ref="E65" r:id="rId24" xr:uid="{73FFC168-A2FC-4757-A0EC-68EAEBB6D343}"/>
-    <hyperlink ref="E66" r:id="rId25" xr:uid="{44624D9D-47FA-49FA-A1A2-A2219838A04A}"/>
-    <hyperlink ref="E69" r:id="rId26" xr:uid="{30A055BF-6D52-49F7-A82D-7A7B9D5A7F4B}"/>
-    <hyperlink ref="E70" r:id="rId27" xr:uid="{7CC8F2D1-2314-4CD8-846B-81574B4C25E4}"/>
-    <hyperlink ref="E71" r:id="rId28" xr:uid="{A114E7B1-9F5A-40E1-8B09-C69FE99EB734}"/>
-    <hyperlink ref="E5" r:id="rId29" xr:uid="{BA21C455-F4DD-4DEF-B37B-510192927152}"/>
-    <hyperlink ref="E130" r:id="rId30" xr:uid="{4C1EC546-1474-46B1-BFFC-D7C04267EDAB}"/>
-    <hyperlink ref="E133" r:id="rId31" xr:uid="{0CE78B74-6A47-449E-8DC0-CDC961120E33}"/>
-    <hyperlink ref="E132" r:id="rId32" xr:uid="{A98FE8DB-1B68-42C7-8075-8DF3AAAEDEFB}"/>
-    <hyperlink ref="E131" r:id="rId33" xr:uid="{F0055E87-7161-4348-ABCA-3BD17D7C7B16}"/>
-    <hyperlink ref="E129" r:id="rId34" xr:uid="{63D32B51-A35F-43E9-A9AD-F008B9CC0800}"/>
-    <hyperlink ref="E128" r:id="rId35" xr:uid="{1ABC46CD-E1D3-474C-A138-7C0C79776EEB}"/>
-    <hyperlink ref="E127" r:id="rId36" xr:uid="{25022B29-2DFA-43FD-8B20-DD6BA65451FD}"/>
-    <hyperlink ref="E126" r:id="rId37" xr:uid="{AC8D673C-25F9-4C5F-9846-C56CE55B0DF1}"/>
-    <hyperlink ref="E125" r:id="rId38" xr:uid="{CD3FAB40-996A-4209-B59E-7DA424ACAA78}"/>
-    <hyperlink ref="E15" r:id="rId39" xr:uid="{12F4C5A5-1404-4C69-8A89-624B4D93AF1C}"/>
-    <hyperlink ref="E82" r:id="rId40" xr:uid="{A8DC862B-F3B1-4C7F-B94F-EC13856A95B4}"/>
-    <hyperlink ref="E44" r:id="rId41" xr:uid="{0314CC0E-00BB-471F-B0F7-52EF8B6B9526}"/>
-    <hyperlink ref="E81" r:id="rId42" xr:uid="{E8F22B9E-3778-4B32-A2C1-CB16F3BF9EB1}"/>
-    <hyperlink ref="E98" r:id="rId43" xr:uid="{A556E516-F90E-4FAA-983D-DF64EC72B26F}"/>
-    <hyperlink ref="E134" r:id="rId44" xr:uid="{FA58F22F-70DE-4997-A4A9-7AA837D63882}"/>
-    <hyperlink ref="E135" r:id="rId45" xr:uid="{23CC3683-865E-46BF-9DD5-F451F724BF8A}"/>
-    <hyperlink ref="E136" r:id="rId46" xr:uid="{D6A91BD3-8EED-4B71-A444-0541AA711A44}"/>
-    <hyperlink ref="E137" r:id="rId47" xr:uid="{6D7C7F82-B751-46D3-BE43-96F9A44D90C9}"/>
-    <hyperlink ref="E138" r:id="rId48" xr:uid="{630052FB-D272-4FC3-A2AE-A2ED92830A5A}"/>
-    <hyperlink ref="E139" r:id="rId49" xr:uid="{DC39A1DA-39D8-4EC6-B7C5-361D94E9F7F1}"/>
-    <hyperlink ref="E140" r:id="rId50" xr:uid="{FA6C8B8B-8ACD-4966-9DDE-288746C66124}"/>
-    <hyperlink ref="E9" r:id="rId51" xr:uid="{6A163B7F-2910-4C56-A377-8A587E3A2604}"/>
-    <hyperlink ref="E19" r:id="rId52" xr:uid="{450CC32B-5134-493F-AF8A-572D8F9FEAE9}"/>
-    <hyperlink ref="E20" r:id="rId53" xr:uid="{B8AB4780-8116-4787-A15F-C96DEB6BE99A}"/>
-    <hyperlink ref="E21" r:id="rId54" xr:uid="{4BF4B5B8-03E9-49E0-A628-7C9D755F004A}"/>
-    <hyperlink ref="E22" r:id="rId55" xr:uid="{81DC480B-EDC5-4D5A-84EB-D00E237AA148}"/>
-    <hyperlink ref="E46" r:id="rId56" xr:uid="{0CB89291-635B-4845-8D86-83920CBF4337}"/>
-    <hyperlink ref="E47" r:id="rId57" xr:uid="{6DBAAE86-B7FA-44A9-B105-418461AA5554}"/>
-    <hyperlink ref="E48" r:id="rId58" xr:uid="{A535F74D-8415-4E2D-8D9A-1F8936179F2C}"/>
-    <hyperlink ref="E49" r:id="rId59" xr:uid="{0B91EA1A-B089-4168-B158-02A3E8E617D5}"/>
-    <hyperlink ref="E50" r:id="rId60" xr:uid="{D98EB5BA-146A-494E-8DCC-A6276A797EDE}"/>
-    <hyperlink ref="E51" r:id="rId61" xr:uid="{1D8A1C33-01FC-4AD0-B658-4C39A1CBEEC0}"/>
-    <hyperlink ref="E52" r:id="rId62" xr:uid="{5F39583B-9B7B-4AC1-97CB-70F7B8F5D336}"/>
-    <hyperlink ref="E56" r:id="rId63" xr:uid="{3BF5FEEB-E67E-4C4A-93D9-964B221AFA37}"/>
-    <hyperlink ref="E57" r:id="rId64" xr:uid="{AC4AD615-CAA0-4501-A031-154D2DED0E85}"/>
-    <hyperlink ref="E12" r:id="rId65" xr:uid="{FE9F8C3C-FE3A-4B84-81B1-B2D43FDE8E2E}"/>
-    <hyperlink ref="E23" r:id="rId66" xr:uid="{C22E98D8-D5EC-40B0-B6C8-A07B181BF851}"/>
-    <hyperlink ref="E25" r:id="rId67" xr:uid="{470D1806-24D0-4084-9CBC-B2B987AFF6F7}"/>
-    <hyperlink ref="E72" r:id="rId68" xr:uid="{440A16E7-D46E-4E9D-ABCA-54EC8EB779F9}"/>
-    <hyperlink ref="E73" r:id="rId69" xr:uid="{7BA14DBB-68A4-48A7-97F8-863CFBC6CD59}"/>
+    <hyperlink ref="E53" r:id="rId21" xr:uid="{D4D18C66-C34D-4EAF-81B9-E16BDCB50EBD}"/>
+    <hyperlink ref="E54" r:id="rId22" xr:uid="{79AA3943-0F7E-4BA3-8959-3D179D95E3AE}"/>
+    <hyperlink ref="E55" r:id="rId23" xr:uid="{6EA021C7-8A81-4D01-9865-B8B05CB44EFF}"/>
+    <hyperlink ref="E59" r:id="rId24" xr:uid="{30A055BF-6D52-49F7-A82D-7A7B9D5A7F4B}"/>
+    <hyperlink ref="E61" r:id="rId25" xr:uid="{7CC8F2D1-2314-4CD8-846B-81574B4C25E4}"/>
+    <hyperlink ref="E63" r:id="rId26" xr:uid="{A114E7B1-9F5A-40E1-8B09-C69FE99EB734}"/>
+    <hyperlink ref="E5" r:id="rId27" xr:uid="{BA21C455-F4DD-4DEF-B37B-510192927152}"/>
+    <hyperlink ref="E121" r:id="rId28" xr:uid="{4C1EC546-1474-46B1-BFFC-D7C04267EDAB}"/>
+    <hyperlink ref="E124" r:id="rId29" xr:uid="{0CE78B74-6A47-449E-8DC0-CDC961120E33}"/>
+    <hyperlink ref="E123" r:id="rId30" xr:uid="{A98FE8DB-1B68-42C7-8075-8DF3AAAEDEFB}"/>
+    <hyperlink ref="E122" r:id="rId31" xr:uid="{F0055E87-7161-4348-ABCA-3BD17D7C7B16}"/>
+    <hyperlink ref="E120" r:id="rId32" xr:uid="{63D32B51-A35F-43E9-A9AD-F008B9CC0800}"/>
+    <hyperlink ref="E119" r:id="rId33" xr:uid="{1ABC46CD-E1D3-474C-A138-7C0C79776EEB}"/>
+    <hyperlink ref="E118" r:id="rId34" xr:uid="{25022B29-2DFA-43FD-8B20-DD6BA65451FD}"/>
+    <hyperlink ref="E117" r:id="rId35" xr:uid="{AC8D673C-25F9-4C5F-9846-C56CE55B0DF1}"/>
+    <hyperlink ref="E116" r:id="rId36" xr:uid="{CD3FAB40-996A-4209-B59E-7DA424ACAA78}"/>
+    <hyperlink ref="E14" r:id="rId37" xr:uid="{12F4C5A5-1404-4C69-8A89-624B4D93AF1C}"/>
+    <hyperlink ref="E72" r:id="rId38" xr:uid="{A8DC862B-F3B1-4C7F-B94F-EC13856A95B4}"/>
+    <hyperlink ref="E44" r:id="rId39" xr:uid="{0314CC0E-00BB-471F-B0F7-52EF8B6B9526}"/>
+    <hyperlink ref="E71" r:id="rId40" xr:uid="{E8F22B9E-3778-4B32-A2C1-CB16F3BF9EB1}"/>
+    <hyperlink ref="E89" r:id="rId41" xr:uid="{A556E516-F90E-4FAA-983D-DF64EC72B26F}"/>
+    <hyperlink ref="E125" r:id="rId42" xr:uid="{FA58F22F-70DE-4997-A4A9-7AA837D63882}"/>
+    <hyperlink ref="E126" r:id="rId43" xr:uid="{23CC3683-865E-46BF-9DD5-F451F724BF8A}"/>
+    <hyperlink ref="E127" r:id="rId44" xr:uid="{D6A91BD3-8EED-4B71-A444-0541AA711A44}"/>
+    <hyperlink ref="E128" r:id="rId45" xr:uid="{6D7C7F82-B751-46D3-BE43-96F9A44D90C9}"/>
+    <hyperlink ref="E129" r:id="rId46" xr:uid="{630052FB-D272-4FC3-A2AE-A2ED92830A5A}"/>
+    <hyperlink ref="E130" r:id="rId47" xr:uid="{DC39A1DA-39D8-4EC6-B7C5-361D94E9F7F1}"/>
+    <hyperlink ref="E131" r:id="rId48" xr:uid="{FA6C8B8B-8ACD-4966-9DDE-288746C66124}"/>
+    <hyperlink ref="E9" r:id="rId49" xr:uid="{6A163B7F-2910-4C56-A377-8A587E3A2604}"/>
+    <hyperlink ref="E18" r:id="rId50" xr:uid="{450CC32B-5134-493F-AF8A-572D8F9FEAE9}"/>
+    <hyperlink ref="E19" r:id="rId51" xr:uid="{B8AB4780-8116-4787-A15F-C96DEB6BE99A}"/>
+    <hyperlink ref="E20" r:id="rId52" xr:uid="{4BF4B5B8-03E9-49E0-A628-7C9D755F004A}"/>
+    <hyperlink ref="E21" r:id="rId53" xr:uid="{81DC480B-EDC5-4D5A-84EB-D00E237AA148}"/>
+    <hyperlink ref="E46" r:id="rId54" xr:uid="{0B91EA1A-B089-4168-B158-02A3E8E617D5}"/>
+    <hyperlink ref="E13" r:id="rId55" xr:uid="{FE9F8C3C-FE3A-4B84-81B1-B2D43FDE8E2E}"/>
+    <hyperlink ref="E24" r:id="rId56" xr:uid="{C22E98D8-D5EC-40B0-B6C8-A07B181BF851}"/>
+    <hyperlink ref="E25" r:id="rId57" xr:uid="{470D1806-24D0-4084-9CBC-B2B987AFF6F7}"/>
+    <hyperlink ref="E64" r:id="rId58" xr:uid="{440A16E7-D46E-4E9D-ABCA-54EC8EB779F9}"/>
+    <hyperlink ref="E65" r:id="rId59" xr:uid="{7BA14DBB-68A4-48A7-97F8-863CFBC6CD59}"/>
+    <hyperlink ref="E7" r:id="rId60" xr:uid="{D77B4F7C-06EE-45FC-9EC0-3800E2DE087B}"/>
+    <hyperlink ref="E10" r:id="rId61" xr:uid="{59055657-256B-4E97-9FC2-CB13A4784BB6}"/>
+    <hyperlink ref="E22" r:id="rId62" xr:uid="{4352610D-453C-4980-B9F3-84D3B561BC5B}"/>
+    <hyperlink ref="E79" r:id="rId63" xr:uid="{5E8BF666-DF1A-4007-8756-64CCC8B4906F}"/>
+    <hyperlink ref="E26" r:id="rId64" xr:uid="{08278460-EC90-42E9-9929-F485754F930E}"/>
+    <hyperlink ref="E29" r:id="rId65" xr:uid="{37B8C0C1-3C69-4D42-AB4B-FED7FD3AA059}"/>
+    <hyperlink ref="E28" r:id="rId66" xr:uid="{9918A396-4AD3-472C-A556-FEE27903B4F2}"/>
+    <hyperlink ref="E45" r:id="rId67" xr:uid="{6D256777-A9D5-4E31-84AF-E5FCF9C7A50D}"/>
+    <hyperlink ref="E51" r:id="rId68" xr:uid="{47B70BB9-9E6B-4939-B448-80947CA6A4B9}"/>
+    <hyperlink ref="E47" r:id="rId69" xr:uid="{8F136CEC-72B6-40BD-A484-091056231934}"/>
+    <hyperlink ref="E48" r:id="rId70" xr:uid="{775BB73F-85C9-40A4-9ABC-B0EA15C292FF}"/>
+    <hyperlink ref="E49" r:id="rId71" xr:uid="{94812483-1073-4283-8B47-FF6ABEF59ACB}"/>
+    <hyperlink ref="E52" r:id="rId72" xr:uid="{662CAB03-B394-4F35-BABF-7CEB2661DA22}"/>
+    <hyperlink ref="E56" r:id="rId73" xr:uid="{D805E190-BEAD-4CF3-AA34-352489A9B20A}"/>
+    <hyperlink ref="E57" r:id="rId74" xr:uid="{48D06588-55D5-49B8-A772-2398CEB6BEA8}"/>
+    <hyperlink ref="E58" r:id="rId75" xr:uid="{05F01F05-90D5-48EC-B8A2-A757F992D229}"/>
+    <hyperlink ref="E66" r:id="rId76" xr:uid="{57CD0EE5-043E-4064-8E97-E0092A178DB6}"/>
+    <hyperlink ref="E67" r:id="rId77" xr:uid="{C7BC5816-47F2-45D6-9E54-39DE073BF332}"/>
+    <hyperlink ref="E68" r:id="rId78" xr:uid="{81B8CB5F-B108-4A15-A859-E16013E668B5}"/>
+    <hyperlink ref="E69" r:id="rId79" xr:uid="{E0BDAF48-1A27-492B-9661-76CB199CCD86}"/>
+    <hyperlink ref="E70" r:id="rId80" xr:uid="{75FC787A-D172-4485-BF9C-EB2066069285}"/>
+    <hyperlink ref="E73" r:id="rId81" xr:uid="{098ED674-F4AC-44D3-AAED-45B31F268702}"/>
+    <hyperlink ref="E75" r:id="rId82" xr:uid="{7F0F77F4-F087-4899-92B2-1485104D10CE}"/>
+    <hyperlink ref="E76" r:id="rId83" xr:uid="{93E1A56C-C3D2-4F16-85A0-06EA34EC3AAD}"/>
+    <hyperlink ref="E77" r:id="rId84" xr:uid="{71DC076D-6F1F-48FB-AF73-6DC8C9632A2A}"/>
+    <hyperlink ref="E78" r:id="rId85" xr:uid="{E45B552C-0F29-438B-BAD5-905543CF7709}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId70"/>
+  <pageSetup orientation="portrait" r:id="rId86"/>
 </worksheet>
 </file>
--- a/tomb reverse lorand/mormant_finance deployment schedule.xlsx
+++ b/tomb reverse lorand/mormant_finance deployment schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\New Repositories\specterfinance-contracts\tomb reverse lorand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B460A9DD-867B-417A-B3B4-75FB591EE7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAA9AFC-8C49-4B1B-9CE8-8BF2DAD2EFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,9 +964,6 @@
     <t>alloc points (24000), tshare+WFTM LP address, withupdate = 1, lastreward = 1623069000***</t>
   </si>
   <si>
-    <t>tomb-wftm address, period (21600), starttime 1622637000*</t>
-  </si>
-  <si>
     <t>21600s = 6h</t>
   </si>
   <si>
@@ -1094,6 +1091,9 @@
   </si>
   <si>
     <t>tomb address, 140.000.000.000.000.000.000.000 (140k)</t>
+  </si>
+  <si>
+    <t>tomb-wftm LP address, period (21600), starttime 1622637000*</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1473,7 @@
   <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,6 +1484,7 @@
     <col min="5" max="5" width="66.7109375" customWidth="1"/>
     <col min="6" max="6" width="19" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="63.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
     <col min="9" max="9" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1507,7 +1508,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1710,7 +1711,7 @@
         <v>298</v>
       </c>
       <c r="I10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -1755,7 +1756,7 @@
         <v>294</v>
       </c>
       <c r="I12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2073,7 +2074,7 @@
         <v>44346.972592592596</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2096,7 +2097,7 @@
         <v>44346.972615740742</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2110,16 +2111,16 @@
         <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F28" s="11">
         <v>44346.972615740742</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2127,22 +2128,22 @@
         <v>141</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="F29" s="11">
         <v>44346.972916666666</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2165,7 +2166,7 @@
         <v>44346.973819444444</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2188,7 +2189,7 @@
         <v>44346.976087962961</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2211,7 +2212,7 @@
         <v>44346.976122685184</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2234,7 +2235,7 @@
         <v>44346.976134259261</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2257,7 +2258,7 @@
         <v>44346.976168981484</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2280,7 +2281,7 @@
         <v>44346.976319444446</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2303,7 +2304,7 @@
         <v>44346.976435185185</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2326,7 +2327,7 @@
         <v>44346.9765625</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2349,7 +2350,7 @@
         <v>44346.9766087963</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2372,7 +2373,7 @@
         <v>44346.976736111108</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2395,7 +2396,7 @@
         <v>44346.976875</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2418,7 +2419,7 @@
         <v>44346.977002314816</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2441,7 +2442,7 @@
         <v>44346.977118055554</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2464,7 +2465,7 @@
         <v>44346.977384259262</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2487,7 +2488,7 @@
         <v>44346.977511574078</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2510,7 +2511,7 @@
         <v>44346.977581018517</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2533,7 +2534,7 @@
         <v>44347.775231481479</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2556,7 +2557,7 @@
         <v>44349.454583333332</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2579,7 +2580,7 @@
         <v>44349.456400462965</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2602,7 +2603,7 @@
         <v>44349.456782407404</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2667,7 +2668,7 @@
         <v>44349.932395833333</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2690,7 +2691,7 @@
         <v>44349.956203703703</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2713,7 +2714,7 @@
         <v>44349.958240740743</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2736,7 +2737,7 @@
         <v>44349.960162037038</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2759,7 +2760,7 @@
         <v>44349.966944444444</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2782,7 +2783,7 @@
         <v>44350.474189814813</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2805,7 +2806,7 @@
         <v>44350.475104166668</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2828,7 +2829,7 @@
         <v>44353.438414351855</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2870,7 +2871,7 @@
         <v>44353.439212962963</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -2912,7 +2913,7 @@
         <v>44353.440763888888</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2935,7 +2936,7 @@
         <v>44353.954108796293</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2958,7 +2959,7 @@
         <v>44353.958611111113</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2981,7 +2982,7 @@
         <v>44357.980949074074</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3004,7 +3005,7 @@
         <v>44357.980983796297</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3027,7 +3028,7 @@
         <v>44357.98101851852</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3050,7 +3051,7 @@
         <v>44357.981053240743</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3073,7 +3074,7 @@
         <v>44357.981076388889</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -3096,7 +3097,7 @@
         <v>44357.983946759261</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3119,7 +3120,7 @@
         <v>44357.984537037039</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3142,7 +3143,7 @@
         <v>44357.985358796293</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
@@ -3184,7 +3185,7 @@
         <v>44357.986087962963</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3207,7 +3208,7 @@
         <v>44359.521018518521</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3230,7 +3231,7 @@
         <v>44359.543124999997</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3253,7 +3254,7 @@
         <v>44359.771006944444</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3276,7 +3277,7 @@
         <v>44399.557349537034</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">

--- a/tomb reverse lorand/mormant_finance deployment schedule.xlsx
+++ b/tomb reverse lorand/mormant_finance deployment schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\New Repositories\specterfinance-contracts\tomb reverse lorand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Specter\New Repositories\specterfinance-contracts\tomb reverse lorand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAA9AFC-8C49-4B1B-9CE8-8BF2DAD2EFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD16B7F-60C1-411A-A750-E6AE4B9EA1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Shit1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Shit1!$A$1:$G$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Shit1!$A$1:$H$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="353">
   <si>
     <t xml:space="preserve">SeigniorageOracle: </t>
   </si>
@@ -1470,2916 +1470,3289 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="30.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="66.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="47.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="66.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5">
         <v>44346.938796296294</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="11">
+      <c r="G3" s="11">
         <v>44346.938796296294</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5">
+      <c r="F4" s="2"/>
+      <c r="G4" s="5">
         <v>44346.939004629632</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="11">
+      <c r="G5" s="11">
         <v>44346.939004629632</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5">
+      <c r="F6" s="2"/>
+      <c r="G6" s="5">
         <v>44346.939050925925</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F7" s="11">
+      <c r="G7" s="11">
         <v>44346.939050925925</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5">
+      <c r="F8" s="2"/>
+      <c r="G8" s="5">
         <v>44346.944004629629</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F9" s="11">
+      <c r="G9" s="11">
         <v>44346.944004629629</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>136</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F10" s="11">
+      <c r="G10" s="11">
         <v>44346.944085648145</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5">
+      <c r="F11" s="2"/>
+      <c r="G11" s="5">
         <v>44346.944803240738</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="11">
+      <c r="G12" s="11">
         <v>44346.944652777776</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F13" s="11">
+      <c r="G13" s="11">
         <v>44346.944803240738</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F14" s="11">
+      <c r="G14" s="11">
         <v>44346.944930555554</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="11">
+      <c r="G15" s="11">
         <v>44346.949131944442</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F16" s="11">
+      <c r="G16" s="11">
         <v>44346.949456018519</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F17" s="11">
+      <c r="G17" s="11">
         <v>44346.960949074077</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F18" s="11">
+      <c r="G18" s="11">
         <v>44346.969108796293</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F19" s="11">
+      <c r="G19" s="11">
         <v>44346.969166666669</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F20" s="11">
+      <c r="G20" s="11">
         <v>44346.969212962962</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="H20" s="8" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F21" s="11">
+      <c r="G21" s="11">
         <v>44346.969247685185</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="H21" s="8" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>137</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F22" s="11">
+      <c r="G22" s="11">
         <v>44346.969814814816</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="H22" s="8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="5">
+      <c r="F23" s="2"/>
+      <c r="G23" s="5">
         <v>44346.972592592596</v>
       </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F24" s="11">
+      <c r="G24" s="11">
         <v>44346.970393518517</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="H24" s="8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F25" s="11">
+      <c r="G25" s="11">
         <v>44346.97042824074</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>23</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F26" s="11">
+      <c r="G26" s="11">
         <v>44346.972592592596</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="H26" s="8" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>24</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F27" s="11">
+      <c r="G27" s="11">
         <v>44346.972615740742</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>142</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F28" s="11">
+      <c r="G28" s="11">
         <v>44346.972615740742</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>141</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F29" s="11">
+      <c r="G29" s="11">
         <v>44346.972916666666</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>25</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F30" s="11">
+      <c r="G30" s="11">
         <v>44346.973819444444</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>26</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F31" s="11">
+      <c r="G31" s="11">
         <v>44346.976087962961</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>27</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F32" s="11">
+      <c r="G32" s="11">
         <v>44346.976122685184</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>28</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F33" s="11">
+      <c r="G33" s="11">
         <v>44346.976134259261</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>29</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F34" s="11">
+      <c r="G34" s="11">
         <v>44346.976168981484</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>30</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F35" s="11">
+      <c r="G35" s="11">
         <v>44346.976319444446</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="H35" s="8" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>31</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F36" s="11">
+      <c r="G36" s="11">
         <v>44346.976435185185</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>32</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F37" s="11">
+      <c r="G37" s="11">
         <v>44346.9765625</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="H37" s="8" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>33</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="F38" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F38" s="11">
+      <c r="G38" s="11">
         <v>44346.9766087963</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>34</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F39" s="11">
+      <c r="G39" s="11">
         <v>44346.976736111108</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="H39" s="8" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>35</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F40" s="11">
+      <c r="G40" s="11">
         <v>44346.976875</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="H40" s="8" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>36</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="11">
+      <c r="G41" s="11">
         <v>44346.977002314816</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="H41" s="8" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>37</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="F42" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F42" s="11">
+      <c r="G42" s="11">
         <v>44346.977118055554</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="H42" s="8" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>38</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F43" s="11">
+      <c r="G43" s="11">
         <v>44346.977384259262</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="H43" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>39</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="F44" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F44" s="11">
+      <c r="G44" s="11">
         <v>44346.977511574078</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="H44" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>40</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F45" s="11">
+      <c r="G45" s="11">
         <v>44346.977581018517</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="H45" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="F46" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F46" s="11">
+      <c r="G46" s="11">
         <v>44347.775231481479</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="H46" s="8" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>48</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="F47" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F47" s="11">
+      <c r="G47" s="11">
         <v>44349.454583333332</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="H47" s="8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>49</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="F48" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F48" s="11">
+      <c r="G48" s="11">
         <v>44349.456400462965</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="H48" s="8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>50</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F49" s="11">
+      <c r="G49" s="11">
         <v>44349.456782407404</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="H49" s="8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>53</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="5">
+      <c r="F50" s="2"/>
+      <c r="G50" s="5">
         <v>44349.92491898148</v>
       </c>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>54</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F51" s="11">
+      <c r="G51" s="11">
         <v>44349.92491898148</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="H51" s="8" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>55</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="F52" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F52" s="11">
+      <c r="G52" s="11">
         <v>44349.932395833333</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="H52" s="8" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>56</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F53" s="11">
+      <c r="G53" s="11">
         <v>44349.956203703703</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="H53" s="8" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>57</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="F54" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F54" s="11">
+      <c r="G54" s="11">
         <v>44349.958240740743</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="H54" s="8" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>58</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="F55" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F55" s="11">
+      <c r="G55" s="11">
         <v>44349.960162037038</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="H55" s="8" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>59</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="F56" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F56" s="11">
+      <c r="G56" s="11">
         <v>44349.966944444444</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="H56" s="8" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>62</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="F57" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F57" s="11">
+      <c r="G57" s="11">
         <v>44350.474189814813</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="H57" s="8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>63</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="F58" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F58" s="11">
+      <c r="G58" s="11">
         <v>44350.475104166668</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="H58" s="8" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>64</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="F59" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F59" s="11">
+      <c r="G59" s="11">
         <v>44353.438414351855</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="H59" s="8" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>69</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="B60" s="2"/>
       <c r="C60" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="5">
+      <c r="F60" s="2"/>
+      <c r="G60" s="5">
         <v>44357.980949074074</v>
       </c>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>65</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="F61" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F61" s="11">
+      <c r="G61" s="11">
         <v>44353.439212962963</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="H61" s="8" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>71</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="B62" s="2"/>
       <c r="C62" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="5">
+      <c r="F62" s="2"/>
+      <c r="G62" s="5">
         <v>44357.980983796297</v>
       </c>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>66</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="F63" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F63" s="11">
+      <c r="G63" s="11">
         <v>44353.440763888888</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="H63" s="8" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>67</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="F64" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F64" s="11">
+      <c r="G64" s="11">
         <v>44353.954108796293</v>
       </c>
-      <c r="G64" s="8" t="s">
+      <c r="H64" s="8" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>68</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="F65" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F65" s="11">
+      <c r="G65" s="11">
         <v>44353.958611111113</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="H65" s="8" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>70</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F66" s="11">
+      <c r="G66" s="11">
         <v>44357.980949074074</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="H66" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>72</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="F67" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F67" s="11">
+      <c r="G67" s="11">
         <v>44357.980983796297</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="H67" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>73</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="F68" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F68" s="11">
+      <c r="G68" s="11">
         <v>44357.98101851852</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="H68" s="8" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>74</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="F69" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F69" s="11">
+      <c r="G69" s="11">
         <v>44357.981053240743</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="H69" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>75</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="F70" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F70" s="11">
+      <c r="G70" s="11">
         <v>44357.981076388889</v>
       </c>
-      <c r="G70" s="8" t="s">
+      <c r="H70" s="8" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>76</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="F71" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F71" s="11">
+      <c r="G71" s="11">
         <v>44357.983946759261</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="H71" s="8" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>77</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="F72" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F72" s="11">
+      <c r="G72" s="11">
         <v>44357.984537037039</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="H72" s="8" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>78</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="F73" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F73" s="11">
+      <c r="G73" s="11">
         <v>44357.985358796293</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="H73" s="8" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>83</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="B74" s="2"/>
       <c r="C74" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="5">
+      <c r="F74" s="2"/>
+      <c r="G74" s="5">
         <v>44403.002337962964</v>
       </c>
-      <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>79</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="F75" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F75" s="11">
+      <c r="G75" s="11">
         <v>44357.986087962963</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="H75" s="8" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>80</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="F76" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F76" s="11">
+      <c r="G76" s="11">
         <v>44359.521018518521</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="H76" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>81</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="F77" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F77" s="11">
+      <c r="G77" s="11">
         <v>44359.543124999997</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="H77" s="8" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>82</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="F78" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F78" s="11">
+      <c r="G78" s="11">
         <v>44359.771006944444</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="H78" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>140</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="F79" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F79" s="11">
+      <c r="G79" s="11">
         <v>44399.557349537034</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="H79" s="8" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>84</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="F80" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F80" s="11">
+      <c r="G80" s="11">
         <v>44403.002337962964</v>
       </c>
-      <c r="G80" s="8"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>85</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="F81" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F81" s="11">
+      <c r="G81" s="11">
         <v>44403.388969907406</v>
       </c>
-      <c r="G81" s="8"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>86</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="F82" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F82" s="11">
+      <c r="G82" s="11">
         <v>44403.675625000003</v>
       </c>
-      <c r="G82" s="8"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>87</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F83" s="11">
+      <c r="G83" s="11">
         <v>44406.501967592594</v>
       </c>
-      <c r="G83" s="8"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>88</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="F84" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F84" s="11">
+      <c r="G84" s="11">
         <v>44406.556875000002</v>
       </c>
-      <c r="G84" s="8"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="8"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>89</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="F85" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F85" s="11">
+      <c r="G85" s="11">
         <v>44406.825231481482</v>
       </c>
-      <c r="G85" s="8"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="8"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>90</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="F86" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F86" s="11">
+      <c r="G86" s="11">
         <v>44406.825567129628</v>
       </c>
-      <c r="G86" s="8"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="8"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>91</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="F87" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F87" s="11">
+      <c r="G87" s="11">
         <v>44406.8278587963</v>
       </c>
-      <c r="G87" s="8"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>92</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="F88" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F88" s="11">
+      <c r="G88" s="11">
         <v>44406.827928240738</v>
       </c>
-      <c r="G88" s="8"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>93</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="F89" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F89" s="11">
+      <c r="G89" s="11">
         <v>44407.749398148146</v>
       </c>
-      <c r="G89" s="8"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>94</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="F90" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F90" s="11">
+      <c r="G90" s="11">
         <v>44408.349062499998</v>
       </c>
-      <c r="G90" s="8"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="8"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>95</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="F91" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F91" s="11">
+      <c r="G91" s="11">
         <v>44408.932199074072</v>
       </c>
-      <c r="G91" s="8"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="8"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>96</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="F92" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F92" s="11">
+      <c r="G92" s="11">
         <v>44408.932662037034</v>
       </c>
-      <c r="G92" s="8"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="8"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>97</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="F93" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F93" s="11">
+      <c r="G93" s="11">
         <v>44408.933136574073</v>
       </c>
-      <c r="G93" s="8"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>98</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="F94" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F94" s="11">
+      <c r="G94" s="11">
         <v>44408.933437500003</v>
       </c>
-      <c r="G94" s="8"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>99</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="F95" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F95" s="11">
+      <c r="G95" s="11">
         <v>44408.933645833335</v>
       </c>
-      <c r="G95" s="8"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>100</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="F96" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F96" s="11">
+      <c r="G96" s="11">
         <v>44408.937754629631</v>
       </c>
-      <c r="G96" s="8"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="8"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>101</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="F97" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F97" s="11">
+      <c r="G97" s="11">
         <v>44408.938009259262</v>
       </c>
-      <c r="G97" s="8"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="8"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>102</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="F98" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F98" s="11">
+      <c r="G98" s="11">
         <v>44408.938263888886</v>
       </c>
-      <c r="G98" s="8"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="8"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>103</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="D99" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="F99" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F99" s="11">
+      <c r="G99" s="11">
         <v>44408.938946759263</v>
       </c>
-      <c r="G99" s="8"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="8"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>104</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="F100" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F100" s="11">
+      <c r="G100" s="11">
         <v>44408.939131944448</v>
       </c>
-      <c r="G100" s="8"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="8"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>105</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="D101" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="F101" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F101" s="11">
+      <c r="G101" s="11">
         <v>44408.939305555556</v>
       </c>
-      <c r="G101" s="8"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="8"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>106</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="D102" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="F102" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F102" s="11">
+      <c r="G102" s="11">
         <v>44408.939444444448</v>
       </c>
-      <c r="G102" s="8"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="8"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>107</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="D103" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="F103" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F103" s="11">
+      <c r="G103" s="11">
         <v>44408.939641203702</v>
       </c>
-      <c r="G103" s="8"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="8"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>108</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="D104" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="F104" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F104" s="11">
+      <c r="G104" s="11">
         <v>44408.939768518518</v>
       </c>
-      <c r="G104" s="8"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="8"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>109</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="D105" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="F105" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F105" s="11">
+      <c r="G105" s="11">
         <v>44408.940069444441</v>
       </c>
-      <c r="G105" s="8"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="8"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>110</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="D106" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="F106" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F106" s="11">
+      <c r="G106" s="11">
         <v>44408.940196759257</v>
       </c>
-      <c r="G106" s="8"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="8"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>111</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="F107" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F107" s="11">
+      <c r="G107" s="11">
         <v>44408.940370370372</v>
       </c>
-      <c r="G107" s="8"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="8"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>112</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="F108" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F108" s="11">
+      <c r="G108" s="11">
         <v>44408.940520833334</v>
       </c>
-      <c r="G108" s="8"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="8"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>113</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="F109" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F109" s="11">
+      <c r="G109" s="11">
         <v>44408.940625000003</v>
       </c>
-      <c r="G109" s="8"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="8"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>114</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="F110" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F110" s="11">
+      <c r="G110" s="11">
         <v>44408.940972222219</v>
       </c>
-      <c r="G110" s="8"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="8"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>115</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="F111" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F111" s="11">
+      <c r="G111" s="11">
         <v>44408.941087962965</v>
       </c>
-      <c r="G111" s="8"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="8"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>116</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="F112" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F112" s="11">
+      <c r="G112" s="11">
         <v>44408.941192129627</v>
       </c>
-      <c r="G112" s="8"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="8"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>117</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="E113" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="F113" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F113" s="11">
+      <c r="G113" s="11">
         <v>44408.941365740742</v>
       </c>
-      <c r="G113" s="8"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="8"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>118</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="D114" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="F114" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F114" s="11">
+      <c r="G114" s="11">
         <v>44408.941469907404</v>
       </c>
-      <c r="G114" s="8"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="8"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>119</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="D115" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="F115" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F115" s="11">
+      <c r="G115" s="11">
         <v>44408.94158564815</v>
       </c>
-      <c r="G115" s="8"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="8"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>120</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="D116" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="F116" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F116" s="11">
+      <c r="G116" s="11">
         <v>44408.941712962966</v>
       </c>
-      <c r="G116" s="8"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="8"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>121</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="F117" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F117" s="11">
+      <c r="G117" s="11">
         <v>44408.941793981481</v>
       </c>
-      <c r="G117" s="8"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="8"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>122</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="D118" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="F118" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F118" s="11">
+      <c r="G118" s="11">
         <v>44408.94189814815</v>
       </c>
-      <c r="G118" s="8"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="8"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>123</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="D119" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="F119" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F119" s="11">
+      <c r="G119" s="11">
         <v>44409.341423611113</v>
       </c>
-      <c r="G119" s="8"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="8"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>124</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="D120" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="F120" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F120" s="11">
+      <c r="G120" s="11">
         <v>44409.375324074077</v>
       </c>
-      <c r="G120" s="8"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="8"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>125</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="E121" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="F121" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F121" s="11">
+      <c r="G121" s="11">
         <v>44409.436944444446</v>
       </c>
-      <c r="G121" s="8"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" s="8"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>126</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C122" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="D122" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E122" s="7" t="s">
+      <c r="F122" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F122" s="11">
+      <c r="G122" s="11">
         <v>44409.463854166665</v>
       </c>
-      <c r="G122" s="8"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" s="8"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>127</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="D123" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="F123" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F123" s="11">
+      <c r="G123" s="11">
         <v>44409.494571759256</v>
       </c>
-      <c r="G123" s="8"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" s="8"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>128</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="D124" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="F124" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F124" s="11">
+      <c r="G124" s="11">
         <v>44409.699097222219</v>
       </c>
-      <c r="G124" s="8"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" s="8"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>129</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="D125" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="F125" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F125" s="11">
+      <c r="G125" s="11">
         <v>44411.892893518518</v>
       </c>
-      <c r="G125" s="8"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" s="8"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>130</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="D126" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E126" s="7" t="s">
+      <c r="F126" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F126" s="11">
+      <c r="G126" s="11">
         <v>44440.067685185182</v>
       </c>
-      <c r="G126" s="8"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" s="8"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>131</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="E127" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E127" s="7" t="s">
+      <c r="F127" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F127" s="11">
+      <c r="G127" s="11">
         <v>44481.449432870373</v>
       </c>
-      <c r="G127" s="8"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" s="8"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>132</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="E128" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E128" s="7" t="s">
+      <c r="F128" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F128" s="11">
+      <c r="G128" s="11">
         <v>44487.27783564815</v>
       </c>
-      <c r="G128" s="8"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" s="8"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>133</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C129" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="E129" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E129" s="7" t="s">
+      <c r="F129" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F129" s="11">
+      <c r="G129" s="11">
         <v>44487.2812037037</v>
       </c>
-      <c r="G129" s="8"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" s="8"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>134</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="D130" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E130" s="7" t="s">
+      <c r="F130" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F130" s="11">
+      <c r="G130" s="11">
         <v>44487.413946759261</v>
       </c>
-      <c r="G130" s="8"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" s="8"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>135</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="D131" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="E131" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E131" s="7" t="s">
+      <c r="F131" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F131" s="11">
+      <c r="G131" s="11">
         <v>44487.414988425924</v>
       </c>
-      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G131" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
+  <autoFilter ref="A1:H131" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
       <filters>
         <filter val="0x00da40a68426a9561f38acb366458d3b514311a199155a8a68b6383d4f6bd0d6"/>
         <filter val="0x01acda810b58f60aa9913033d9937a706d5c7299127d2d8e250326c392451723"/>
         <filter val="0x04e80088fcc28f2e2abf58f9ea577aff51830b8a46cfdd773903e24eaada79a5"/>
-        <filter val="0x067b581b18d77e6f1b506d661d3eb5db05a793e2287a6755eed4281e1a026327"/>
         <filter val="0x08d31d4ac886c40c9d9aed3145783423c89cc4dc7b532ec3558a0e524538a51f"/>
         <filter val="0x0a2d1c7ff6b0b20f4064a056cb988ff13fe46698e5df4b0abc010a18baa3b7b1"/>
         <filter val="0x0c392a2f701e5b02df2f5c32016d80db8c51b17780f584ea92a641fbfde8f5ae"/>
@@ -4396,11 +4769,9 @@
         <filter val="0x1e365d125dcaf10e25ab4734304854270181947773e0360603dda14bdcbd6190"/>
         <filter val="0x1eaea3a1c9ae3e4c0e70d8c59a071f693b60d95c0b6a57e85881146a9aa44b93"/>
         <filter val="0x2038b0696614faa1d0254e5ca416f06ab1fbe1697c2685f59a044f9b96c1677e"/>
-        <filter val="0x203ee3c28f0d05b3199d49704aaf7e3a767abc12eadd4f2eeb406e7c2d309921"/>
         <filter val="0x227d71d5bd65a9cdfdb7a54e3a46a96462dc3dbe4bc47ae53600fb0a69154551"/>
         <filter val="0x244269138cd2b05411dfde012f543733ffcb3e01686cd91a2379a6924814ac4e"/>
         <filter val="0x249ecb3623f0437d2a3f524e99ce299d93f31fd4dbc58afb3e6042d1f559d55f"/>
-        <filter val="0x2712a06fd93cf9547dedd7af7de1a27b5ce4a4e61d32506f5799cd075f701426"/>
         <filter val="0x2ab6faeacb82293be2142e35942a7ef6679988629e245b84c12d576774fbd45f"/>
         <filter val="0x2ad2a34f30474d5ea5e1359f201a15eeefc814429c4f1925032f9e12de2d10b1"/>
         <filter val="0x2f68d037879035992d74f41191ac5d19502bd9acee965a0d3b5d2d93f86400b4"/>
@@ -4426,16 +4797,13 @@
         <filter val="0x557a124aa3525fcfc22c7830b093f96425c4dc3d800e4f3a06ab775d692b4b16"/>
         <filter val="0x573748f91a4fc2d2eb81321cd115c395fb9302e175950eebb97c39239b4ee781"/>
         <filter val="0x58d3a762e78b84e22720acf654ff2de62a853eb758ae770870c0c13608337a23"/>
-        <filter val="0x58fa07d988b4d0be8e8c8990e92e5d050b03ace12b1ee2458dfe8ad4158bd0db"/>
         <filter val="0x5c36f21349ef13adb32fe3ea4f55fed5d86b622d09bbe4584ea9f1047c86adcc"/>
         <filter val="0x61defc8ecc6c91b043bf3bb3629c11522213c0d6711f3af4ee065f39aa49c262"/>
         <filter val="0x62d1981d247f76a202cf839c4ff28f920fc4076e2f2f89aba955285bbd28bd6f"/>
         <filter val="0x62fc90842ca71f92e91826ca9f4fe6080d29bff8aeccb1630092e80d023464ea"/>
-        <filter val="0x68b832f94109ddad918ddcffaf5f545d0214e43e7c0d2911bc19bc399509e038"/>
         <filter val="0x6a7376d54302531ff3e7a086ba8b75d1f33105f0ee080e7c360e398127e2fe2a"/>
         <filter val="0x6d72f07fb565acd918cb2a8e738851ca979d6b85aa2a382f75bd2f2c9814fae2"/>
         <filter val="0x6f76575379cd914a1ea3a50ded0c34a89641f672926f27c243b6464db5917af3"/>
-        <filter val="0x72ddadc4b99f0985c0cacbd0baab0de707bce0a52ea38ff5923456f5f37811c6"/>
         <filter val="0x7401434ed7b7975743eb9c45424c19d3288800f97a4ee459b09872c5eab33549"/>
         <filter val="0x7489935b6599409b42be332c746d0ff312919b67e20456a2271bc410b8745399"/>
         <filter val="0x75055e0eec72dc19241f6ae101b0d2ff4c983b4a06d1e69f17a8bf84660e09a9"/>
@@ -4445,7 +4813,6 @@
         <filter val="0x791cdf03dfc7b7e72d06e8e72e8b42dd5f6e59185b655c2d568aa0fe96c55e08"/>
         <filter val="0x7e4f89a89b4c05eef3bb25642a6e3ece29cf39373e533a2ac01533fbbe3a1e36"/>
         <filter val="0x7e7be177000ae2c2b5033c7fe7920216b78c0ad249fe29a718a93df944c3bff2"/>
-        <filter val="0x84f3f889df174120a98f19c2cb6dcee90045e184033ce409ec7ee8e1e6bb8606"/>
         <filter val="0x86a319a9a265d7d336ede7a449182e73ac2956c615dc4e537f668eb969231a0a"/>
         <filter val="0x88725502d14c4080a3ee6de5d147b31af59c4f3be1d7be7546d165a65385134e"/>
         <filter val="0x888baae0940576334819bba0e1b1eaa7cb8f76fc39c6fc7874cee339c09ec5f5"/>
@@ -4463,7 +4830,6 @@
         <filter val="0xa66d06ab3b85138c27b83e1af55a13fa212a6e88a8110ac01499b14cfe0927ce"/>
         <filter val="0xa8b9b1b077253ed7be4ba272b5229dd8f650eb1589d6455bd1b211578194077f"/>
         <filter val="0xabff4daf72950627dc97e21fd511377cb8f80835a6c9b1220147fcd7d7a82a7f"/>
-        <filter val="0xace1aea90afbf6b6abeafc5f3773d88acd858c74020e32f99894cad00f6db99f"/>
         <filter val="0xaef8ae92bc18acc1c5d40685d450e7ebd5020e81ea15fdc07865bd31320ea400"/>
         <filter val="0xaf675309bbab738201b13a130558accb53be5aa240064d1d62e03084a7242b5f"/>
         <filter val="0xaffe55de86674c178c68b6877216c474d7be33953249b2235d540c49350d9953"/>
@@ -4472,7 +4838,6 @@
         <filter val="0xb2b0439082525d53c4b5a521148a725336521549ec0f832d569f86d9b21ff9f8"/>
         <filter val="0xb401801491e54da0040fa82c5fdb50430865a4b243e96a0cb0560ba649f93e05"/>
         <filter val="0xb7004d9abb94c1f1fa0bafad46238a2b39a70bc4ae28dfe6ad1fe8a539d034a7"/>
-        <filter val="0xc049e61da64b7775908501885e751cfbd162bdd21b7316ddbfd1795c38e33658"/>
         <filter val="0xc0b21d459b7c10342edd0596eb60d24326d15db7f358b9058f21b0ed6618ce29"/>
         <filter val="0xc77b968402ecf2cb34c8206765a8c56c29f8756503543f05c493b4918cc4f80c"/>
         <filter val="0xc82e9c73de1e8735c6ab5afd0f57d54bbe4ba8b38ea14aaac1c0389cef77328c"/>
@@ -4484,7 +4849,6 @@
         <filter val="0xd2ac50ddda7bb761cfdd6758706214c8c4ffb3b66bf96d02bc884838db4dd831"/>
         <filter val="0xd4e377bae01482bbeb1524dd36088917e0b672f2b602296ddf41228310eedf8f"/>
         <filter val="0xd9259c5129f08f35c25736608b3e25f1cff23283edf199ac2a86ade723c6cae8"/>
-        <filter val="0xd92be8a3fe3698f7372557752daf6beb5d5469636642f03113b646d1a863ce0e"/>
         <filter val="0xdae1b01e0c53113ff7d9b61eaf7de5ab436f7f9a086a1d322221a0de1988681f"/>
         <filter val="0xdc86588d83232e2f73b4e73b13a99b7748c405711a5bec5d6aa14bead3489594"/>
         <filter val="0xdf8c5dfcbb84af5972a5de85464a4c6da857f805e175c7e5272fedc8bcf4d243"/>
@@ -4499,7 +4863,6 @@
         <filter val="0xf0e7e7660b217d9afdcdd7f7b385b37718623ca27a94378f666db18a5ea52c81"/>
         <filter val="0xf20b15e632b646e0f59c24f138391ec3471dd7f89f527010a89940b3e523ee10"/>
         <filter val="0xf5426adcb1d5f939f94441dd9c5117124f3949607623e499afb49be8b9e81df0"/>
-        <filter val="0xf63b42b9111b3589a740b96c3c954c0015803b4e336a31638016b3a160d4d25c"/>
         <filter val="0xf86ec373ab3566b4738b9ebcd8ab6d356d8e2ccb3ae63b356eb4e10abbfbd4a3"/>
         <filter val="0xfae80ab8679247e6aaf5e76b7137c30f7f4bc55eeb0289fcd61fadacfb8c18d9"/>
         <filter val="0xfc58212e8e03bf3598e5bef1a310176cf7cfe7528356629650a7d6dd3d659111"/>
@@ -4507,101 +4870,185 @@
         <filter val="0xfdcc2f91ff8da52a1d50016385e0a4cf3e11e205431c0d180f6b2f526a8d1f73"/>
         <filter val="0xff46558a5b2c646932870a7f26ca9bd4a6ea982000a04de7bc1edf812ba647e1"/>
         <filter val="0xff5dee04f58e9c0d1211f3e9126c31f49ab88d74fedce3e7503ddc04a13ef9e7"/>
-        <filter val="0xffaaa8c4025f9a4fbbd3d5b75ff8741156157a1c2da0d34b9708aeca06f4c9c6"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G131">
-      <sortCondition ref="F1:F131"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H131">
+      <sortCondition ref="G1:G131"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{CC226D66-8EF2-4B26-ABB0-C3435BD3E956}"/>
-    <hyperlink ref="E12" r:id="rId2" xr:uid="{691FC201-D1E3-4CD6-BC2A-B246B4CF7269}"/>
-    <hyperlink ref="E15" r:id="rId3" xr:uid="{0BA6138B-47D7-4108-B6D5-58747DA77B86}"/>
-    <hyperlink ref="E16" r:id="rId4" xr:uid="{99DC493A-91FD-4B13-A548-32E711418C86}"/>
-    <hyperlink ref="E17" r:id="rId5" xr:uid="{D855AA22-2436-4570-A9EC-5FEB7D7D9754}"/>
-    <hyperlink ref="E27" r:id="rId6" xr:uid="{52AAF4A8-26F7-486A-9A96-A99885D121D0}"/>
-    <hyperlink ref="E30" r:id="rId7" xr:uid="{CB2F9CC2-BF58-4838-B696-87B760D7699F}"/>
-    <hyperlink ref="E31" r:id="rId8" xr:uid="{2C47805F-986B-4C86-B356-DC27A75ED375}"/>
-    <hyperlink ref="E32" r:id="rId9" xr:uid="{F913C845-86CD-4C76-9C55-B1F2A2F40605}"/>
-    <hyperlink ref="E33" r:id="rId10" xr:uid="{16B34DD6-2FC5-4AAE-B228-D9D6257B64CE}"/>
-    <hyperlink ref="E34" r:id="rId11" xr:uid="{5985B1B6-545B-4E5D-8987-6A8E8975B569}"/>
-    <hyperlink ref="E35" r:id="rId12" xr:uid="{3077943E-35D2-4347-B49A-34E07680C12E}"/>
-    <hyperlink ref="E36" r:id="rId13" xr:uid="{B2D0DBB8-C399-43D6-B4A2-B3F6AE276237}"/>
-    <hyperlink ref="E37" r:id="rId14" xr:uid="{74C2C4E3-FCC9-402D-8864-CEFA7853251F}"/>
-    <hyperlink ref="E38" r:id="rId15" xr:uid="{FB76E6C3-3F7B-4A58-B35F-F0DC85DD96BA}"/>
-    <hyperlink ref="E39" r:id="rId16" xr:uid="{C83903A2-9AE4-443B-A374-05FA4977AD5D}"/>
-    <hyperlink ref="E40" r:id="rId17" xr:uid="{652BC8FE-C6DE-4D70-925D-FB0BF3875456}"/>
-    <hyperlink ref="E41" r:id="rId18" xr:uid="{34DB7DBB-0377-4459-B101-D11137808C6D}"/>
-    <hyperlink ref="E42" r:id="rId19" xr:uid="{B4555CD1-E301-4D36-BB23-5E0D473D9979}"/>
-    <hyperlink ref="E43" r:id="rId20" xr:uid="{22350453-298C-48D7-B00B-F53327D79346}"/>
-    <hyperlink ref="E53" r:id="rId21" xr:uid="{D4D18C66-C34D-4EAF-81B9-E16BDCB50EBD}"/>
-    <hyperlink ref="E54" r:id="rId22" xr:uid="{79AA3943-0F7E-4BA3-8959-3D179D95E3AE}"/>
-    <hyperlink ref="E55" r:id="rId23" xr:uid="{6EA021C7-8A81-4D01-9865-B8B05CB44EFF}"/>
-    <hyperlink ref="E59" r:id="rId24" xr:uid="{30A055BF-6D52-49F7-A82D-7A7B9D5A7F4B}"/>
-    <hyperlink ref="E61" r:id="rId25" xr:uid="{7CC8F2D1-2314-4CD8-846B-81574B4C25E4}"/>
-    <hyperlink ref="E63" r:id="rId26" xr:uid="{A114E7B1-9F5A-40E1-8B09-C69FE99EB734}"/>
-    <hyperlink ref="E5" r:id="rId27" xr:uid="{BA21C455-F4DD-4DEF-B37B-510192927152}"/>
-    <hyperlink ref="E121" r:id="rId28" xr:uid="{4C1EC546-1474-46B1-BFFC-D7C04267EDAB}"/>
-    <hyperlink ref="E124" r:id="rId29" xr:uid="{0CE78B74-6A47-449E-8DC0-CDC961120E33}"/>
-    <hyperlink ref="E123" r:id="rId30" xr:uid="{A98FE8DB-1B68-42C7-8075-8DF3AAAEDEFB}"/>
-    <hyperlink ref="E122" r:id="rId31" xr:uid="{F0055E87-7161-4348-ABCA-3BD17D7C7B16}"/>
-    <hyperlink ref="E120" r:id="rId32" xr:uid="{63D32B51-A35F-43E9-A9AD-F008B9CC0800}"/>
-    <hyperlink ref="E119" r:id="rId33" xr:uid="{1ABC46CD-E1D3-474C-A138-7C0C79776EEB}"/>
-    <hyperlink ref="E118" r:id="rId34" xr:uid="{25022B29-2DFA-43FD-8B20-DD6BA65451FD}"/>
-    <hyperlink ref="E117" r:id="rId35" xr:uid="{AC8D673C-25F9-4C5F-9846-C56CE55B0DF1}"/>
-    <hyperlink ref="E116" r:id="rId36" xr:uid="{CD3FAB40-996A-4209-B59E-7DA424ACAA78}"/>
-    <hyperlink ref="E14" r:id="rId37" xr:uid="{12F4C5A5-1404-4C69-8A89-624B4D93AF1C}"/>
-    <hyperlink ref="E72" r:id="rId38" xr:uid="{A8DC862B-F3B1-4C7F-B94F-EC13856A95B4}"/>
-    <hyperlink ref="E44" r:id="rId39" xr:uid="{0314CC0E-00BB-471F-B0F7-52EF8B6B9526}"/>
-    <hyperlink ref="E71" r:id="rId40" xr:uid="{E8F22B9E-3778-4B32-A2C1-CB16F3BF9EB1}"/>
-    <hyperlink ref="E89" r:id="rId41" xr:uid="{A556E516-F90E-4FAA-983D-DF64EC72B26F}"/>
-    <hyperlink ref="E125" r:id="rId42" xr:uid="{FA58F22F-70DE-4997-A4A9-7AA837D63882}"/>
-    <hyperlink ref="E126" r:id="rId43" xr:uid="{23CC3683-865E-46BF-9DD5-F451F724BF8A}"/>
-    <hyperlink ref="E127" r:id="rId44" xr:uid="{D6A91BD3-8EED-4B71-A444-0541AA711A44}"/>
-    <hyperlink ref="E128" r:id="rId45" xr:uid="{6D7C7F82-B751-46D3-BE43-96F9A44D90C9}"/>
-    <hyperlink ref="E129" r:id="rId46" xr:uid="{630052FB-D272-4FC3-A2AE-A2ED92830A5A}"/>
-    <hyperlink ref="E130" r:id="rId47" xr:uid="{DC39A1DA-39D8-4EC6-B7C5-361D94E9F7F1}"/>
-    <hyperlink ref="E131" r:id="rId48" xr:uid="{FA6C8B8B-8ACD-4966-9DDE-288746C66124}"/>
-    <hyperlink ref="E9" r:id="rId49" xr:uid="{6A163B7F-2910-4C56-A377-8A587E3A2604}"/>
-    <hyperlink ref="E18" r:id="rId50" xr:uid="{450CC32B-5134-493F-AF8A-572D8F9FEAE9}"/>
-    <hyperlink ref="E19" r:id="rId51" xr:uid="{B8AB4780-8116-4787-A15F-C96DEB6BE99A}"/>
-    <hyperlink ref="E20" r:id="rId52" xr:uid="{4BF4B5B8-03E9-49E0-A628-7C9D755F004A}"/>
-    <hyperlink ref="E21" r:id="rId53" xr:uid="{81DC480B-EDC5-4D5A-84EB-D00E237AA148}"/>
-    <hyperlink ref="E46" r:id="rId54" xr:uid="{0B91EA1A-B089-4168-B158-02A3E8E617D5}"/>
-    <hyperlink ref="E13" r:id="rId55" xr:uid="{FE9F8C3C-FE3A-4B84-81B1-B2D43FDE8E2E}"/>
-    <hyperlink ref="E24" r:id="rId56" xr:uid="{C22E98D8-D5EC-40B0-B6C8-A07B181BF851}"/>
-    <hyperlink ref="E25" r:id="rId57" xr:uid="{470D1806-24D0-4084-9CBC-B2B987AFF6F7}"/>
-    <hyperlink ref="E64" r:id="rId58" xr:uid="{440A16E7-D46E-4E9D-ABCA-54EC8EB779F9}"/>
-    <hyperlink ref="E65" r:id="rId59" xr:uid="{7BA14DBB-68A4-48A7-97F8-863CFBC6CD59}"/>
-    <hyperlink ref="E7" r:id="rId60" xr:uid="{D77B4F7C-06EE-45FC-9EC0-3800E2DE087B}"/>
-    <hyperlink ref="E10" r:id="rId61" xr:uid="{59055657-256B-4E97-9FC2-CB13A4784BB6}"/>
-    <hyperlink ref="E22" r:id="rId62" xr:uid="{4352610D-453C-4980-B9F3-84D3B561BC5B}"/>
-    <hyperlink ref="E79" r:id="rId63" xr:uid="{5E8BF666-DF1A-4007-8756-64CCC8B4906F}"/>
-    <hyperlink ref="E26" r:id="rId64" xr:uid="{08278460-EC90-42E9-9929-F485754F930E}"/>
-    <hyperlink ref="E29" r:id="rId65" xr:uid="{37B8C0C1-3C69-4D42-AB4B-FED7FD3AA059}"/>
-    <hyperlink ref="E28" r:id="rId66" xr:uid="{9918A396-4AD3-472C-A556-FEE27903B4F2}"/>
-    <hyperlink ref="E45" r:id="rId67" xr:uid="{6D256777-A9D5-4E31-84AF-E5FCF9C7A50D}"/>
-    <hyperlink ref="E51" r:id="rId68" xr:uid="{47B70BB9-9E6B-4939-B448-80947CA6A4B9}"/>
-    <hyperlink ref="E47" r:id="rId69" xr:uid="{8F136CEC-72B6-40BD-A484-091056231934}"/>
-    <hyperlink ref="E48" r:id="rId70" xr:uid="{775BB73F-85C9-40A4-9ABC-B0EA15C292FF}"/>
-    <hyperlink ref="E49" r:id="rId71" xr:uid="{94812483-1073-4283-8B47-FF6ABEF59ACB}"/>
-    <hyperlink ref="E52" r:id="rId72" xr:uid="{662CAB03-B394-4F35-BABF-7CEB2661DA22}"/>
-    <hyperlink ref="E56" r:id="rId73" xr:uid="{D805E190-BEAD-4CF3-AA34-352489A9B20A}"/>
-    <hyperlink ref="E57" r:id="rId74" xr:uid="{48D06588-55D5-49B8-A772-2398CEB6BEA8}"/>
-    <hyperlink ref="E58" r:id="rId75" xr:uid="{05F01F05-90D5-48EC-B8A2-A757F992D229}"/>
-    <hyperlink ref="E66" r:id="rId76" xr:uid="{57CD0EE5-043E-4064-8E97-E0092A178DB6}"/>
-    <hyperlink ref="E67" r:id="rId77" xr:uid="{C7BC5816-47F2-45D6-9E54-39DE073BF332}"/>
-    <hyperlink ref="E68" r:id="rId78" xr:uid="{81B8CB5F-B108-4A15-A859-E16013E668B5}"/>
-    <hyperlink ref="E69" r:id="rId79" xr:uid="{E0BDAF48-1A27-492B-9661-76CB199CCD86}"/>
-    <hyperlink ref="E70" r:id="rId80" xr:uid="{75FC787A-D172-4485-BF9C-EB2066069285}"/>
-    <hyperlink ref="E73" r:id="rId81" xr:uid="{098ED674-F4AC-44D3-AAED-45B31F268702}"/>
-    <hyperlink ref="E75" r:id="rId82" xr:uid="{7F0F77F4-F087-4899-92B2-1485104D10CE}"/>
-    <hyperlink ref="E76" r:id="rId83" xr:uid="{93E1A56C-C3D2-4F16-85A0-06EA34EC3AAD}"/>
-    <hyperlink ref="E77" r:id="rId84" xr:uid="{71DC076D-6F1F-48FB-AF73-6DC8C9632A2A}"/>
-    <hyperlink ref="E78" r:id="rId85" xr:uid="{E45B552C-0F29-438B-BAD5-905543CF7709}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{CC226D66-8EF2-4B26-ABB0-C3435BD3E956}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{691FC201-D1E3-4CD6-BC2A-B246B4CF7269}"/>
+    <hyperlink ref="F15" r:id="rId3" xr:uid="{0BA6138B-47D7-4108-B6D5-58747DA77B86}"/>
+    <hyperlink ref="F16" r:id="rId4" xr:uid="{99DC493A-91FD-4B13-A548-32E711418C86}"/>
+    <hyperlink ref="F17" r:id="rId5" xr:uid="{D855AA22-2436-4570-A9EC-5FEB7D7D9754}"/>
+    <hyperlink ref="F27" r:id="rId6" xr:uid="{52AAF4A8-26F7-486A-9A96-A99885D121D0}"/>
+    <hyperlink ref="F30" r:id="rId7" xr:uid="{CB2F9CC2-BF58-4838-B696-87B760D7699F}"/>
+    <hyperlink ref="F31" r:id="rId8" xr:uid="{2C47805F-986B-4C86-B356-DC27A75ED375}"/>
+    <hyperlink ref="F32" r:id="rId9" xr:uid="{F913C845-86CD-4C76-9C55-B1F2A2F40605}"/>
+    <hyperlink ref="F33" r:id="rId10" xr:uid="{16B34DD6-2FC5-4AAE-B228-D9D6257B64CE}"/>
+    <hyperlink ref="F34" r:id="rId11" xr:uid="{5985B1B6-545B-4E5D-8987-6A8E8975B569}"/>
+    <hyperlink ref="F35" r:id="rId12" xr:uid="{3077943E-35D2-4347-B49A-34E07680C12E}"/>
+    <hyperlink ref="F36" r:id="rId13" xr:uid="{B2D0DBB8-C399-43D6-B4A2-B3F6AE276237}"/>
+    <hyperlink ref="F37" r:id="rId14" xr:uid="{74C2C4E3-FCC9-402D-8864-CEFA7853251F}"/>
+    <hyperlink ref="F38" r:id="rId15" xr:uid="{FB76E6C3-3F7B-4A58-B35F-F0DC85DD96BA}"/>
+    <hyperlink ref="F39" r:id="rId16" xr:uid="{C83903A2-9AE4-443B-A374-05FA4977AD5D}"/>
+    <hyperlink ref="F40" r:id="rId17" xr:uid="{652BC8FE-C6DE-4D70-925D-FB0BF3875456}"/>
+    <hyperlink ref="F41" r:id="rId18" xr:uid="{34DB7DBB-0377-4459-B101-D11137808C6D}"/>
+    <hyperlink ref="F42" r:id="rId19" xr:uid="{B4555CD1-E301-4D36-BB23-5E0D473D9979}"/>
+    <hyperlink ref="F43" r:id="rId20" xr:uid="{22350453-298C-48D7-B00B-F53327D79346}"/>
+    <hyperlink ref="F53" r:id="rId21" xr:uid="{D4D18C66-C34D-4EAF-81B9-E16BDCB50EBD}"/>
+    <hyperlink ref="F54" r:id="rId22" xr:uid="{79AA3943-0F7E-4BA3-8959-3D179D95E3AE}"/>
+    <hyperlink ref="F55" r:id="rId23" xr:uid="{6EA021C7-8A81-4D01-9865-B8B05CB44EFF}"/>
+    <hyperlink ref="F59" r:id="rId24" xr:uid="{30A055BF-6D52-49F7-A82D-7A7B9D5A7F4B}"/>
+    <hyperlink ref="F61" r:id="rId25" xr:uid="{7CC8F2D1-2314-4CD8-846B-81574B4C25E4}"/>
+    <hyperlink ref="F63" r:id="rId26" xr:uid="{A114E7B1-9F5A-40E1-8B09-C69FE99EB734}"/>
+    <hyperlink ref="F5" r:id="rId27" xr:uid="{BA21C455-F4DD-4DEF-B37B-510192927152}"/>
+    <hyperlink ref="F121" r:id="rId28" xr:uid="{4C1EC546-1474-46B1-BFFC-D7C04267EDAB}"/>
+    <hyperlink ref="F124" r:id="rId29" xr:uid="{0CE78B74-6A47-449E-8DC0-CDC961120E33}"/>
+    <hyperlink ref="F123" r:id="rId30" xr:uid="{A98FE8DB-1B68-42C7-8075-8DF3AAAEDEFB}"/>
+    <hyperlink ref="F122" r:id="rId31" xr:uid="{F0055E87-7161-4348-ABCA-3BD17D7C7B16}"/>
+    <hyperlink ref="F120" r:id="rId32" xr:uid="{63D32B51-A35F-43E9-A9AD-F008B9CC0800}"/>
+    <hyperlink ref="F119" r:id="rId33" xr:uid="{1ABC46CD-E1D3-474C-A138-7C0C79776EEB}"/>
+    <hyperlink ref="F118" r:id="rId34" xr:uid="{25022B29-2DFA-43FD-8B20-DD6BA65451FD}"/>
+    <hyperlink ref="F117" r:id="rId35" xr:uid="{AC8D673C-25F9-4C5F-9846-C56CE55B0DF1}"/>
+    <hyperlink ref="F116" r:id="rId36" xr:uid="{CD3FAB40-996A-4209-B59E-7DA424ACAA78}"/>
+    <hyperlink ref="F14" r:id="rId37" xr:uid="{12F4C5A5-1404-4C69-8A89-624B4D93AF1C}"/>
+    <hyperlink ref="F72" r:id="rId38" xr:uid="{A8DC862B-F3B1-4C7F-B94F-EC13856A95B4}"/>
+    <hyperlink ref="F44" r:id="rId39" xr:uid="{0314CC0E-00BB-471F-B0F7-52EF8B6B9526}"/>
+    <hyperlink ref="F71" r:id="rId40" xr:uid="{E8F22B9E-3778-4B32-A2C1-CB16F3BF9EB1}"/>
+    <hyperlink ref="F89" r:id="rId41" xr:uid="{A556E516-F90E-4FAA-983D-DF64EC72B26F}"/>
+    <hyperlink ref="F125" r:id="rId42" xr:uid="{FA58F22F-70DE-4997-A4A9-7AA837D63882}"/>
+    <hyperlink ref="F126" r:id="rId43" xr:uid="{23CC3683-865E-46BF-9DD5-F451F724BF8A}"/>
+    <hyperlink ref="F127" r:id="rId44" xr:uid="{D6A91BD3-8EED-4B71-A444-0541AA711A44}"/>
+    <hyperlink ref="F128" r:id="rId45" xr:uid="{6D7C7F82-B751-46D3-BE43-96F9A44D90C9}"/>
+    <hyperlink ref="F129" r:id="rId46" xr:uid="{630052FB-D272-4FC3-A2AE-A2ED92830A5A}"/>
+    <hyperlink ref="F130" r:id="rId47" xr:uid="{DC39A1DA-39D8-4EC6-B7C5-361D94E9F7F1}"/>
+    <hyperlink ref="F131" r:id="rId48" xr:uid="{FA6C8B8B-8ACD-4966-9DDE-288746C66124}"/>
+    <hyperlink ref="F9" r:id="rId49" xr:uid="{6A163B7F-2910-4C56-A377-8A587E3A2604}"/>
+    <hyperlink ref="F18" r:id="rId50" xr:uid="{450CC32B-5134-493F-AF8A-572D8F9FEAE9}"/>
+    <hyperlink ref="F19" r:id="rId51" xr:uid="{B8AB4780-8116-4787-A15F-C96DEB6BE99A}"/>
+    <hyperlink ref="F20" r:id="rId52" xr:uid="{4BF4B5B8-03E9-49E0-A628-7C9D755F004A}"/>
+    <hyperlink ref="F21" r:id="rId53" xr:uid="{81DC480B-EDC5-4D5A-84EB-D00E237AA148}"/>
+    <hyperlink ref="F46" r:id="rId54" xr:uid="{0B91EA1A-B089-4168-B158-02A3E8E617D5}"/>
+    <hyperlink ref="F13" r:id="rId55" xr:uid="{FE9F8C3C-FE3A-4B84-81B1-B2D43FDE8E2E}"/>
+    <hyperlink ref="F24" r:id="rId56" xr:uid="{C22E98D8-D5EC-40B0-B6C8-A07B181BF851}"/>
+    <hyperlink ref="F25" r:id="rId57" xr:uid="{470D1806-24D0-4084-9CBC-B2B987AFF6F7}"/>
+    <hyperlink ref="F64" r:id="rId58" xr:uid="{440A16E7-D46E-4E9D-ABCA-54EC8EB779F9}"/>
+    <hyperlink ref="F65" r:id="rId59" xr:uid="{7BA14DBB-68A4-48A7-97F8-863CFBC6CD59}"/>
+    <hyperlink ref="F7" r:id="rId60" xr:uid="{D77B4F7C-06EE-45FC-9EC0-3800E2DE087B}"/>
+    <hyperlink ref="F10" r:id="rId61" xr:uid="{59055657-256B-4E97-9FC2-CB13A4784BB6}"/>
+    <hyperlink ref="F22" r:id="rId62" xr:uid="{4352610D-453C-4980-B9F3-84D3B561BC5B}"/>
+    <hyperlink ref="F79" r:id="rId63" xr:uid="{5E8BF666-DF1A-4007-8756-64CCC8B4906F}"/>
+    <hyperlink ref="F26" r:id="rId64" xr:uid="{08278460-EC90-42E9-9929-F485754F930E}"/>
+    <hyperlink ref="F29" r:id="rId65" xr:uid="{37B8C0C1-3C69-4D42-AB4B-FED7FD3AA059}"/>
+    <hyperlink ref="F28" r:id="rId66" xr:uid="{9918A396-4AD3-472C-A556-FEE27903B4F2}"/>
+    <hyperlink ref="F45" r:id="rId67" xr:uid="{6D256777-A9D5-4E31-84AF-E5FCF9C7A50D}"/>
+    <hyperlink ref="F51" r:id="rId68" xr:uid="{47B70BB9-9E6B-4939-B448-80947CA6A4B9}"/>
+    <hyperlink ref="F47" r:id="rId69" xr:uid="{8F136CEC-72B6-40BD-A484-091056231934}"/>
+    <hyperlink ref="F48" r:id="rId70" xr:uid="{775BB73F-85C9-40A4-9ABC-B0EA15C292FF}"/>
+    <hyperlink ref="F49" r:id="rId71" xr:uid="{94812483-1073-4283-8B47-FF6ABEF59ACB}"/>
+    <hyperlink ref="F52" r:id="rId72" xr:uid="{662CAB03-B394-4F35-BABF-7CEB2661DA22}"/>
+    <hyperlink ref="F56" r:id="rId73" xr:uid="{D805E190-BEAD-4CF3-AA34-352489A9B20A}"/>
+    <hyperlink ref="F57" r:id="rId74" xr:uid="{48D06588-55D5-49B8-A772-2398CEB6BEA8}"/>
+    <hyperlink ref="F58" r:id="rId75" xr:uid="{05F01F05-90D5-48EC-B8A2-A757F992D229}"/>
+    <hyperlink ref="F66" r:id="rId76" xr:uid="{57CD0EE5-043E-4064-8E97-E0092A178DB6}"/>
+    <hyperlink ref="F67" r:id="rId77" xr:uid="{C7BC5816-47F2-45D6-9E54-39DE073BF332}"/>
+    <hyperlink ref="F68" r:id="rId78" xr:uid="{81B8CB5F-B108-4A15-A859-E16013E668B5}"/>
+    <hyperlink ref="F69" r:id="rId79" xr:uid="{E0BDAF48-1A27-492B-9661-76CB199CCD86}"/>
+    <hyperlink ref="F70" r:id="rId80" xr:uid="{75FC787A-D172-4485-BF9C-EB2066069285}"/>
+    <hyperlink ref="F73" r:id="rId81" xr:uid="{098ED674-F4AC-44D3-AAED-45B31F268702}"/>
+    <hyperlink ref="F75" r:id="rId82" xr:uid="{7F0F77F4-F087-4899-92B2-1485104D10CE}"/>
+    <hyperlink ref="F76" r:id="rId83" xr:uid="{93E1A56C-C3D2-4F16-85A0-06EA34EC3AAD}"/>
+    <hyperlink ref="F77" r:id="rId84" xr:uid="{71DC076D-6F1F-48FB-AF73-6DC8C9632A2A}"/>
+    <hyperlink ref="F78" r:id="rId85" xr:uid="{E45B552C-0F29-438B-BAD5-905543CF7709}"/>
+    <hyperlink ref="B3" r:id="rId86" xr:uid="{7742142C-F95F-4F4D-B8BF-5CAD28A63319}"/>
+    <hyperlink ref="B12" r:id="rId87" xr:uid="{B609F7DF-0D99-4A0D-A644-30C7CCB97CFF}"/>
+    <hyperlink ref="B15" r:id="rId88" xr:uid="{1BA981B7-1158-49FA-88AC-71BC402F41F2}"/>
+    <hyperlink ref="B16" r:id="rId89" xr:uid="{5AD26DA1-9FB4-478B-B15A-D99D50F5B442}"/>
+    <hyperlink ref="B17" r:id="rId90" xr:uid="{6743BDF7-6870-456A-91E4-9C6CA312F378}"/>
+    <hyperlink ref="B27" r:id="rId91" xr:uid="{A3878F1E-8552-4693-B0AA-7034CFC64C00}"/>
+    <hyperlink ref="B30" r:id="rId92" xr:uid="{AB0E811C-6566-4777-8217-13D6BBBFABEF}"/>
+    <hyperlink ref="B31" r:id="rId93" xr:uid="{FBC7664C-EAEE-448F-A9FF-CE63ACFB4EB8}"/>
+    <hyperlink ref="B32" r:id="rId94" xr:uid="{C35F2D10-FAA6-466B-B557-699E83369998}"/>
+    <hyperlink ref="B33" r:id="rId95" xr:uid="{B932CAFE-6AF4-43DC-9D77-60996DC83D54}"/>
+    <hyperlink ref="B34" r:id="rId96" xr:uid="{4F97788B-E8C7-47E0-ABBC-46BDC5AA3D1E}"/>
+    <hyperlink ref="B35" r:id="rId97" xr:uid="{C59D18C6-ABEA-4C82-A65B-094C262DE62E}"/>
+    <hyperlink ref="B36" r:id="rId98" xr:uid="{93483109-19ED-4A3A-AC7A-0B45FA9E3D95}"/>
+    <hyperlink ref="B37" r:id="rId99" xr:uid="{F196BBE7-22B7-45F4-A91A-57986C563047}"/>
+    <hyperlink ref="B38" r:id="rId100" xr:uid="{F40FD112-7AF3-4DB3-A5FC-A30C386665F4}"/>
+    <hyperlink ref="B39" r:id="rId101" xr:uid="{865937C3-AD14-4A16-A168-6414A2838408}"/>
+    <hyperlink ref="B40" r:id="rId102" xr:uid="{A3574797-110E-4EAD-BEAD-18DDD9A4D7D8}"/>
+    <hyperlink ref="B41" r:id="rId103" xr:uid="{17322346-C67F-4599-91E1-641F9106D62B}"/>
+    <hyperlink ref="B42" r:id="rId104" xr:uid="{8173C8CA-F7D4-4D83-86B5-2B863F8D1ECB}"/>
+    <hyperlink ref="B43" r:id="rId105" xr:uid="{C329B191-8DD2-4576-AECE-88277D7FDDA2}"/>
+    <hyperlink ref="B53" r:id="rId106" xr:uid="{FF5C71E4-C44A-4676-B33D-D1206F598D1B}"/>
+    <hyperlink ref="B54" r:id="rId107" xr:uid="{0D429DC5-6677-4B44-92F3-8B3B5379C36E}"/>
+    <hyperlink ref="B55" r:id="rId108" xr:uid="{9E0AA62E-FCBD-49B2-B8BC-A0A5A6F85050}"/>
+    <hyperlink ref="B59" r:id="rId109" xr:uid="{FBB87D3B-872B-4737-BA91-283ECFD15E63}"/>
+    <hyperlink ref="B61" r:id="rId110" xr:uid="{33B1BF4D-6B62-4050-AF21-EE9179A45D69}"/>
+    <hyperlink ref="B63" r:id="rId111" xr:uid="{DA12791B-5727-4D63-BED6-40AF7976D7EB}"/>
+    <hyperlink ref="B5" r:id="rId112" xr:uid="{9076B55D-4163-4620-AEDA-1620B13D2B11}"/>
+    <hyperlink ref="B121" r:id="rId113" xr:uid="{7A3AA772-3BD8-4CC1-946F-5EB1BAA7DEE7}"/>
+    <hyperlink ref="B124" r:id="rId114" xr:uid="{ED5B263B-7BAC-45A3-9204-48B255807B18}"/>
+    <hyperlink ref="B123" r:id="rId115" xr:uid="{14A5CE43-0D3D-450D-9A6B-83AB627F12DD}"/>
+    <hyperlink ref="B122" r:id="rId116" xr:uid="{FB7E3127-6060-48CA-9E86-05CE71CD2DC3}"/>
+    <hyperlink ref="B120" r:id="rId117" xr:uid="{3F8A8124-A861-45E5-8009-FC70D91BD2BC}"/>
+    <hyperlink ref="B119" r:id="rId118" xr:uid="{6A7DFBE2-6A3A-4748-9138-3AF978302DF4}"/>
+    <hyperlink ref="B118" r:id="rId119" xr:uid="{F0BA9108-0744-4EF2-9C4B-430D75821D65}"/>
+    <hyperlink ref="B117" r:id="rId120" xr:uid="{141932B2-4C5E-4896-B191-5568A3A56981}"/>
+    <hyperlink ref="B116" r:id="rId121" xr:uid="{F273F866-1068-431F-ADB9-23FEAC7ECBB4}"/>
+    <hyperlink ref="B14" r:id="rId122" xr:uid="{DDE152CC-BBA7-4D55-80D4-B872BFB7B90B}"/>
+    <hyperlink ref="B72" r:id="rId123" xr:uid="{5AB8596D-AF26-43C4-8E2A-A9EF04F77B67}"/>
+    <hyperlink ref="B44" r:id="rId124" xr:uid="{CE1CF14A-E7FB-46F9-99BD-B56998B0EF37}"/>
+    <hyperlink ref="B71" r:id="rId125" xr:uid="{C28BF3D6-B327-49E1-8E8C-50E03922454E}"/>
+    <hyperlink ref="B89" r:id="rId126" xr:uid="{5B5403D5-B4A5-4844-8232-F1F73CC2CABA}"/>
+    <hyperlink ref="B125" r:id="rId127" xr:uid="{9FF91415-688B-4B13-84B5-0D3D895371CF}"/>
+    <hyperlink ref="B126" r:id="rId128" xr:uid="{EA582E6F-B721-43FA-8F09-45CA4AAB0027}"/>
+    <hyperlink ref="B127" r:id="rId129" xr:uid="{34FC67E7-A563-4FCD-BA3D-8ACE3639C69A}"/>
+    <hyperlink ref="B128" r:id="rId130" xr:uid="{6F59442C-D4CE-4F15-86CC-6462871113C3}"/>
+    <hyperlink ref="B129" r:id="rId131" xr:uid="{38A58DA7-B865-4DBA-9D31-5A3747CE39AC}"/>
+    <hyperlink ref="B130" r:id="rId132" xr:uid="{A58AD4A1-E700-4B48-AA22-7E444987C790}"/>
+    <hyperlink ref="B131" r:id="rId133" xr:uid="{7ECF8F40-0070-4776-960A-889161E0AAB1}"/>
+    <hyperlink ref="B9" r:id="rId134" xr:uid="{F9825190-1461-4FFF-8297-75AA5C18981A}"/>
+    <hyperlink ref="B18" r:id="rId135" xr:uid="{83DC980D-176A-49C7-AEE1-3EB86F27C2B9}"/>
+    <hyperlink ref="B19" r:id="rId136" xr:uid="{73EDAA83-14B1-4ADF-862B-19288C9AD692}"/>
+    <hyperlink ref="B20" r:id="rId137" xr:uid="{5A9A0B1C-8F88-4F01-B574-348D9DEB94CC}"/>
+    <hyperlink ref="B21" r:id="rId138" xr:uid="{2B605180-67E9-41AF-A39E-C2B97FC78A54}"/>
+    <hyperlink ref="B46" r:id="rId139" xr:uid="{1F35598E-9A5E-429A-B777-3A0D106645A7}"/>
+    <hyperlink ref="B13" r:id="rId140" xr:uid="{510BFAE0-0CCE-461C-BDE1-A4EED7F60DF4}"/>
+    <hyperlink ref="B24" r:id="rId141" xr:uid="{CAB28E99-248C-474A-92AB-968461C6818B}"/>
+    <hyperlink ref="B25" r:id="rId142" xr:uid="{225F2336-FA07-4A26-8884-4C6004C5EE8B}"/>
+    <hyperlink ref="B64" r:id="rId143" xr:uid="{DDFF86B4-B7AA-4843-8346-64BDE59AD9EF}"/>
+    <hyperlink ref="B65" r:id="rId144" xr:uid="{3C9E2C51-6966-4E6C-94BB-E5BEE0586294}"/>
+    <hyperlink ref="B7" r:id="rId145" xr:uid="{E3B1D34F-24CB-411E-9596-F364AEA5B9CF}"/>
+    <hyperlink ref="B10" r:id="rId146" xr:uid="{AE0E9394-B106-4DD1-BF14-8E432C97B069}"/>
+    <hyperlink ref="B22" r:id="rId147" xr:uid="{4CB94A77-E1BA-43C6-A268-3EDEC9FC1808}"/>
+    <hyperlink ref="B79" r:id="rId148" xr:uid="{FF023DF0-7E99-421E-B463-B671C0CDA01A}"/>
+    <hyperlink ref="B26" r:id="rId149" xr:uid="{6B8DCFE7-A1AB-45C4-AD9A-9C723B85FFB2}"/>
+    <hyperlink ref="B29" r:id="rId150" xr:uid="{A495CD92-A076-439B-A13E-2049CC1D4F5B}"/>
+    <hyperlink ref="B28" r:id="rId151" xr:uid="{59DA3418-97E2-4FF7-98B6-0764725AE44F}"/>
+    <hyperlink ref="B45" r:id="rId152" xr:uid="{14B1C021-1203-464C-926B-899E400115FB}"/>
+    <hyperlink ref="B51" r:id="rId153" xr:uid="{87859FAD-CF66-4BF1-BC82-0FE255DB5FA0}"/>
+    <hyperlink ref="B47" r:id="rId154" xr:uid="{3724D1E8-BFF3-4A06-9C49-FFCE51EE7A5F}"/>
+    <hyperlink ref="B48" r:id="rId155" xr:uid="{26534262-92F3-4B3D-AE18-C1FFCA99A44C}"/>
+    <hyperlink ref="B49" r:id="rId156" xr:uid="{D6E4367F-A698-4BAB-8C43-ECD5E24F96AE}"/>
+    <hyperlink ref="B52" r:id="rId157" xr:uid="{B4DEC903-8BCE-473D-997B-B9F29930217C}"/>
+    <hyperlink ref="B56" r:id="rId158" xr:uid="{6A99B1B8-8BE4-4F33-B587-583B7FDBCC40}"/>
+    <hyperlink ref="B57" r:id="rId159" xr:uid="{E35DA8EC-CAB0-4AB2-BAFB-B44EF647C6CE}"/>
+    <hyperlink ref="B58" r:id="rId160" xr:uid="{B2A2650D-BA6E-472D-B122-4718F2E3DD34}"/>
+    <hyperlink ref="B66" r:id="rId161" xr:uid="{260D4B04-0117-4CB0-9739-376D96EDDE18}"/>
+    <hyperlink ref="B67" r:id="rId162" xr:uid="{903FE3BE-4632-4B20-8D02-C0D0F088DFA8}"/>
+    <hyperlink ref="B68" r:id="rId163" xr:uid="{6AB83569-7E9B-48D1-9B52-68074F8BE4F1}"/>
+    <hyperlink ref="B69" r:id="rId164" xr:uid="{8B0B4275-FDAF-406E-AD44-021A0693409A}"/>
+    <hyperlink ref="B70" r:id="rId165" xr:uid="{FA8A8BA6-392A-48A0-BF66-E0C308AF1253}"/>
+    <hyperlink ref="B73" r:id="rId166" xr:uid="{1AD6509C-6EDF-42D4-BF96-6111F98DC369}"/>
+    <hyperlink ref="B75" r:id="rId167" xr:uid="{8A148E2C-3AE7-4FEF-A355-783A7E503E73}"/>
+    <hyperlink ref="B76" r:id="rId168" xr:uid="{96FEEE09-CF0D-4B72-BD1C-520F1DB65EDC}"/>
+    <hyperlink ref="B77" r:id="rId169" xr:uid="{AF02D00C-08B6-4A6F-A0F2-5BD432F2621D}"/>
+    <hyperlink ref="B78" r:id="rId170" xr:uid="{2C809036-02FB-4F7C-B00E-C6473BF34AC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId86"/>
+  <pageSetup orientation="portrait" r:id="rId171"/>
 </worksheet>
 </file>